--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
-    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
-    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
-    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
-    <sheet name="接收组" r:id="rId9" sheetId="6"/>
-    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
-    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
-    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
+    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
+    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
+    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
+    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
+    <sheet name="接收组" sheetId="6" r:id="rId6"/>
+    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
+    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
+    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="278">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -59,7 +53,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -72,7 +65,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -91,7 +83,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -110,7 +101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,7 +119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -161,7 +150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -180,7 +168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -199,7 +186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -221,7 +207,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -242,7 +227,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -263,7 +247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -284,7 +267,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -305,7 +287,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -317,7 +298,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -336,7 +316,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -348,7 +327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -367,7 +345,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -386,7 +363,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -405,7 +381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -424,7 +399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -472,7 +446,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -491,7 +464,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -510,7 +482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -529,7 +500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -541,7 +511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -560,7 +529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -579,7 +547,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -599,7 +566,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -618,7 +584,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -638,7 +603,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -657,7 +621,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -669,7 +632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -688,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -707,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -731,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -750,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -769,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -788,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -807,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -819,7 +774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -838,7 +792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -849,7 +802,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -870,7 +822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -881,7 +832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -900,7 +850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -919,7 +868,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -943,7 +891,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -962,7 +909,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -982,7 +928,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1002,7 +947,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1022,7 +966,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1043,7 +986,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1063,7 +1005,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1098,7 +1039,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1119,7 +1059,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1131,7 +1070,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1150,7 +1088,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1171,7 +1108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1190,7 +1126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1203,7 +1138,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1222,7 +1156,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1241,7 +1174,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1260,7 +1192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1275,7 +1206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1294,7 +1224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1313,7 +1242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1332,7 +1260,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1351,7 +1278,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1367,7 +1293,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1377,7 +1302,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1396,7 +1320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1412,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1422,7 +1344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1441,7 +1362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1456,7 +1376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1475,7 +1394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1494,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1514,7 +1431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1538,7 +1454,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1557,7 +1472,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1576,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1596,7 +1509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1617,7 +1529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1628,7 +1539,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1638,7 +1548,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1650,7 +1559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1669,7 +1577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1688,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1707,7 +1613,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1727,7 +1632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1746,7 +1650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1765,7 +1668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1785,7 +1687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1804,7 +1705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1823,7 +1723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1842,7 +1741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1862,7 +1760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1874,7 +1771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1885,7 +1781,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1895,7 +1790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1907,7 +1801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1926,7 +1819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1938,7 +1830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1957,7 +1848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1977,7 +1867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2002,7 +1891,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2020,7 +1909,10 @@
     <t>#server_code</t>
   </si>
   <si>
-    <t>server_name</t>
+    <t>server_name:zh_CN</t>
+  </si>
+  <si>
+    <t>server_name:en_US</t>
   </si>
   <si>
     <t>host</t>
@@ -2050,60 +1942,66 @@
     <t>filter_strategy</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-8</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>hmsg_email_server-8</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
-  </si>
-  <si>
     <t>短信服务配置</t>
   </si>
   <si>
@@ -2173,6 +2071,9 @@
     <t>#lang</t>
   </si>
   <si>
+    <t>editor_type</t>
+  </si>
+  <si>
     <t>hmsg_message_template-8</t>
   </si>
   <si>
@@ -2191,6 +2092,9 @@
     <t>zh_CN</t>
   </si>
   <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>hmsg_message_template-9</t>
   </si>
   <si>
@@ -2290,6 +2194,18 @@
     <t>hmsg_message_template-15</t>
   </si>
   <si>
+    <t>HIAM.MOD_PWD_SUCC_WITH_PWD</t>
+  </si>
+  <si>
+    <t>登录密码修改成功(带密码)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;用户&lt;strong&gt;${loginName}&lt;/strong&gt;密码修改成功，新密码为&lt;span class="marker"&gt;${{password}}&lt;/span&gt;，请谨慎保管！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-16</t>
+  </si>
+  <si>
     <t>HIAM.REGISTER_USER</t>
   </si>
   <si>
@@ -2308,7 +2224,7 @@
     <t>smsTpl:6f2ec043-687b-43dc-a231-53487467fe76</t>
   </si>
   <si>
-    <t>hmsg_message_template-16</t>
+    <t>hmsg_message_template-17</t>
   </si>
   <si>
     <t>HIAM.VALIDATE_EMAIL</t>
@@ -2320,7 +2236,7 @@
     <t>&lt;p&gt;【HZERO】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
-    <t>hmsg_message_template-17</t>
+    <t>hmsg_message_template-18</t>
   </si>
   <si>
     <t>HIAM.VALIDATE_PHONE</t>
@@ -2332,7 +2248,7 @@
     <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
-    <t>hmsg_message_template-18</t>
+    <t>hmsg_message_template-19</t>
   </si>
   <si>
     <t>HOTH.MOBILE_LOGIN</t>
@@ -2350,7 +2266,7 @@
     <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
   </si>
   <si>
-    <t>hmsg_message_template-19</t>
+    <t>hmsg_message_template-20</t>
   </si>
   <si>
     <t>HOTH.MODIFY_PASSWORD</t>
@@ -2476,7 +2392,10 @@
     <t>#message_code</t>
   </si>
   <si>
-    <t>message_name</t>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
   </si>
   <si>
     <t>hmsg_template_server-8</t>
@@ -2524,6 +2443,9 @@
     <t>hmsg_template_server-18</t>
   </si>
   <si>
+    <t>hmsg_template_server-19</t>
+  </si>
+  <si>
     <t>发送配置(邮箱)</t>
   </si>
   <si>
@@ -2548,15 +2470,15 @@
     <t>server_code</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-21</t>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
   </si>
   <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-23</t>
   </si>
   <si>
@@ -2569,21 +2491,21 @@
     <t>hmsg_template_server_line-26</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
     <t>发送配置(短信)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-29</t>
+    <t>hmsg_template_server_line-31</t>
   </si>
   <si>
     <t>SMS</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-32</t>
   </si>
   <si>
@@ -2599,10 +2521,19 @@
     <t>hmsg_template_server_line-36</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-37</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-38</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-39</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-39</t>
+    <t>hmsg_template_server_line-42</t>
   </si>
   <si>
     <t>WEB</t>
@@ -2647,12 +2578,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="131">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2688,38 +2654,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2740,600 +2829,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3364,8 +2898,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3466,13 +3186,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3481,32 +3447,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3516,147 +3494,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3729,9 +3629,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3989,285 +3886,293 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:S8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="17" max="17" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4277,13 +4182,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="88">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="89">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="90">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4316,49 +4221,61 @@
       <c r="P7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s" s="91">
+      <c r="Q7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="R7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4366,66 +4283,70 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="92">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s" s="93">
         <v>80</v>
       </c>
-      <c r="F10" t="s" s="94">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s" s="95">
+      <c r="E10" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s" s="96">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4433,113 +4354,135 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s" s="97">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s" s="98">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="99">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s" s="100">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:K28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="23.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="28.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="34.9166666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4547,551 +4490,676 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s" s="101">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s" s="102">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s" s="103">
         <v>98</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s" s="104">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s" s="105">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>65</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17">
       <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17">
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17">
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17">
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17">
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17">
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17">
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17">
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17">
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17">
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="str">
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" t="s">
-        <v>163</v>
-      </c>
-      <c r="I18" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
-      <c r="N18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" t="s">
-        <v>170</v>
-      </c>
-      <c r="N19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s" s="106">
-        <v>172</v>
-      </c>
-      <c r="E21" t="s" s="107">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s" s="108">
-        <v>174</v>
-      </c>
-      <c r="G21" t="s" s="109">
-        <v>175</v>
-      </c>
-      <c r="H21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22">
-        <f>消息模板!$E$8</f>
-      </c>
-      <c r="G22" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23">
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="str">
         <f>消息模板!$E$10</f>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24">
+        <v>hmsg_message_template-10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="str">
         <f>消息模板!$E$11</f>
-      </c>
-      <c r="G24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25">
+        <v>hmsg_message_template-11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="str">
         <f>消息模板!$E$12</f>
-      </c>
-      <c r="G25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26">
+        <v>hmsg_message_template-12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" t="str">
         <f>消息模板!$E$14</f>
-      </c>
-      <c r="G26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27">
-        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="str">
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="10" max="10" width="14.5833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="30.1666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5099,107 +5167,117 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s" s="110">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s" s="111">
-        <v>183</v>
-      </c>
-      <c r="F7" t="s" s="112">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" t="s" s="113">
-        <v>188</v>
-      </c>
-      <c r="K7" t="s" s="114">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>198</v>
+      </c>
+      <c r="N7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5207,75 +5285,85 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s" s="115">
-        <v>197</v>
-      </c>
-      <c r="E7" t="s" s="116">
-        <v>198</v>
-      </c>
-      <c r="F7" t="s" s="117">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s" s="118">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="24.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="33.9166666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="67">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="68">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="69">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="70">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="71">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="72">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="73">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5283,649 +5371,872 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" t="s" s="119">
-        <v>205</v>
-      </c>
-      <c r="E7" t="s" s="120">
-        <v>206</v>
-      </c>
-      <c r="F7" t="s" s="121">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s" s="122">
-        <v>207</v>
-      </c>
-      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11">
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11">
+      <c r="E16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="E22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" t="str">
+        <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="E25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" t="str">
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" t="str">
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="str">
+        <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" t="str">
+        <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="E31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" t="str">
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="E32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" t="str">
+        <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" t="str">
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" t="str">
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" t="str">
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="str">
+        <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12">
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" t="str">
+        <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" t="s">
+        <v>240</v>
+      </c>
+      <c r="J41" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12">
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" t="s">
         <v>142</v>
       </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" t="s">
-        <v>221</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" t="s" s="123">
-        <v>225</v>
-      </c>
-      <c r="E20" t="s" s="124">
-        <v>226</v>
-      </c>
-      <c r="F20" t="s" s="125">
-        <v>227</v>
-      </c>
-      <c r="G20" t="s" s="126">
-        <v>199</v>
-      </c>
-      <c r="H20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I20" t="s" s="127">
-        <v>229</v>
-      </c>
-      <c r="J20" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21">
-        <f>发送配置!$E$18</f>
-      </c>
-      <c r="G21" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22">
-        <f>发送配置!$E$14</f>
-      </c>
-      <c r="G22" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23">
-        <f>发送配置!$E$11</f>
-      </c>
-      <c r="G23" t="s">
-        <v>233</v>
-      </c>
-      <c r="H23" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24">
-        <f>发送配置!$E$15</f>
-      </c>
-      <c r="G24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25">
-        <f>发送配置!$E$10</f>
-      </c>
-      <c r="G25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26">
-        <f>发送配置!$E$9</f>
-      </c>
-      <c r="G26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" t="s" s="128">
-        <v>225</v>
-      </c>
-      <c r="E28" t="s" s="129">
-        <v>226</v>
-      </c>
-      <c r="F28" t="s" s="130">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="H28" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" t="s" s="132">
-        <v>229</v>
-      </c>
-      <c r="J28" t="s">
-        <v>230</v>
-      </c>
-      <c r="K28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29">
-        <f>发送配置!$E$8</f>
-      </c>
-      <c r="G29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30">
-        <f>发送配置!$E$18</f>
-      </c>
-      <c r="G30" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31">
-        <f>发送配置!$E$14</f>
-      </c>
-      <c r="G31" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32">
-        <f>发送配置!$E$13</f>
-      </c>
-      <c r="G32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F33">
-        <f>发送配置!$E$16</f>
-      </c>
-      <c r="G33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>246</v>
-      </c>
-      <c r="F34">
-        <f>发送配置!$E$10</f>
-      </c>
-      <c r="G34" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35">
-        <f>发送配置!$E$9</f>
-      </c>
-      <c r="G35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36">
-        <f>发送配置!$E$17</f>
-      </c>
-      <c r="G36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" t="s" s="133">
-        <v>225</v>
-      </c>
-      <c r="E38" t="s" s="134">
-        <v>226</v>
-      </c>
-      <c r="F38" t="s" s="135">
-        <v>227</v>
-      </c>
-      <c r="G38" t="s" s="136">
-        <v>199</v>
-      </c>
-      <c r="H38" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" t="s">
-        <v>230</v>
-      </c>
-      <c r="K38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39">
-        <f>发送配置!$E$12</f>
-      </c>
-      <c r="G39" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" t="s">
-        <v>137</v>
+      <c r="L42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="74">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="78">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5933,84 +6244,94 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s" s="137">
-        <v>253</v>
-      </c>
-      <c r="E7" t="s" s="138">
+        <v>266</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="139">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s" s="140">
-        <v>66</v>
-      </c>
-      <c r="O7" t="s">
-        <v>259</v>
+        <v>272</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="83">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="84">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="87">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6018,40 +6339,47 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" t="s" s="141">
-        <v>261</v>
-      </c>
-      <c r="E7" t="s" s="142">
+        <v>274</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="143">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" t="s" s="144">
-        <v>66</v>
+        <v>271</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
-    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
-    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
-    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
-    <sheet name="接收组" sheetId="6" r:id="rId6"/>
-    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
-    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
-    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
+    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
+    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
+    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
+    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
+    <sheet name="接收组" r:id="rId9" sheetId="6"/>
+    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
+    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
+    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,6 +40,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,6 +59,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,6 +72,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -83,6 +91,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -101,6 +110,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -119,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -150,6 +161,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -168,6 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -186,6 +199,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -207,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -227,6 +242,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -247,6 +263,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -267,6 +284,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -287,6 +305,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -298,6 +317,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -316,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -327,6 +348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -345,6 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -363,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -381,6 +405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -399,6 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -446,6 +472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -464,6 +491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -482,6 +510,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -500,6 +529,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -511,6 +541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -529,6 +560,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -547,6 +579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -566,6 +599,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -584,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -603,6 +638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -621,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -632,6 +669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -650,6 +688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -668,6 +707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -691,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -709,6 +750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -727,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -745,6 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -763,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -774,6 +819,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -792,6 +838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -802,6 +849,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -822,6 +870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -832,6 +881,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -850,6 +900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -868,6 +919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -891,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -909,6 +962,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -928,6 +982,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -947,6 +1002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -966,6 +1022,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -986,6 +1043,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1005,6 +1063,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1039,6 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1059,6 +1119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1070,6 +1131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1088,6 +1150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1108,6 +1171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1126,6 +1190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1138,6 +1203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1156,6 +1222,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1174,6 +1241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1192,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1206,6 +1275,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1224,6 +1294,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1242,6 +1313,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1260,6 +1332,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1278,6 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1293,6 +1367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1302,6 +1377,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1320,6 +1396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1335,6 +1412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1344,6 +1422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1362,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1376,6 +1456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1394,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1412,6 +1494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1431,6 +1514,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1454,6 +1538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,6 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1490,6 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1509,6 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1529,6 +1617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1539,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1548,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1559,6 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1577,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1595,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1613,6 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1632,6 +1727,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1650,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1668,6 +1765,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1687,6 +1785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1705,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1723,6 +1823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1741,6 +1842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1760,6 +1862,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1771,6 +1874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1781,6 +1885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1790,6 +1895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1801,6 +1907,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1819,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1830,6 +1938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1848,6 +1957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1867,6 +1977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2578,47 +2689,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="137">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2654,188 +2730,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2844,20 +2738,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2866,8 +2763,649 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2898,194 +3436,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3186,259 +3538,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3447,44 +3553,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3494,69 +3588,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3629,6 +3807,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3886,293 +4067,285 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:S8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="17" max="17" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4182,13 +4355,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="88">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="89">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="90">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4224,14 +4397,14 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" t="s" s="91">
         <v>67</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" t="s" s="92">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="5:19">
+    <row r="8">
       <c r="E8" t="s">
         <v>69</v>
       </c>
@@ -4275,7 +4448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4285,68 +4458,64 @@
       <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s" s="93">
         <v>81</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="94">
         <v>82</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s" s="95">
         <v>83</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s" s="96">
         <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s" s="97">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4356,13 +4525,13 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="98">
         <v>88</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="100">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4389,14 +4558,14 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" t="s" s="101">
         <v>67</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s" s="102">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="5:16">
+    <row r="8">
       <c r="E8" t="s">
         <v>94</v>
       </c>
@@ -4435,54 +4604,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="23.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="28.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="34.9166666666667" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4492,13 +4651,13 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="103">
         <v>99</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="104">
         <v>100</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="105">
         <v>101</v>
       </c>
       <c r="G7" t="s">
@@ -4522,20 +4681,20 @@
       <c r="M7" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s" s="106">
         <v>109</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s" s="107">
         <v>86</v>
       </c>
       <c r="Q7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8">
       <c r="E8" t="s">
         <v>111</v>
       </c>
@@ -4567,7 +4726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9">
       <c r="E9" t="s">
         <v>118</v>
       </c>
@@ -4599,7 +4758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10">
       <c r="E10" t="s">
         <v>124</v>
       </c>
@@ -4637,7 +4796,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11">
       <c r="E11" t="s">
         <v>131</v>
       </c>
@@ -4672,7 +4831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12">
       <c r="E12" t="s">
         <v>135</v>
       </c>
@@ -4704,7 +4863,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="5:17">
+    <row r="13">
       <c r="E13" t="s">
         <v>141</v>
       </c>
@@ -4733,7 +4892,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14">
       <c r="E14" t="s">
         <v>145</v>
       </c>
@@ -4771,7 +4930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="5:17">
+    <row r="15">
       <c r="E15" t="s">
         <v>150</v>
       </c>
@@ -4800,7 +4959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="5:17">
+    <row r="16">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -4838,7 +4997,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="5:17">
+    <row r="17">
       <c r="E17" t="s">
         <v>161</v>
       </c>
@@ -4867,7 +5026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
+    <row r="18">
       <c r="E18" t="s">
         <v>165</v>
       </c>
@@ -4899,7 +5058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="5:17">
+    <row r="19">
       <c r="E19" t="s">
         <v>169</v>
       </c>
@@ -4931,7 +5090,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20">
       <c r="E20" t="s">
         <v>175</v>
       </c>
@@ -4963,7 +5122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4973,16 +5132,16 @@
       <c r="C22" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s" s="108">
         <v>181</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s" s="109">
         <v>182</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s" s="110">
         <v>183</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s" s="111">
         <v>184</v>
       </c>
       <c r="H22" t="s">
@@ -4998,13 +5157,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="5:11">
+    <row r="23">
       <c r="E23" t="s">
         <v>187</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
       </c>
       <c r="G23" t="s">
         <v>188</v>
@@ -5022,13 +5180,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="5:11">
+    <row r="24">
       <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -5040,13 +5197,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="5:11">
+    <row r="25">
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
       </c>
       <c r="G25" t="s">
         <v>188</v>
@@ -5058,13 +5214,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="5:11">
+    <row r="26">
       <c r="E26" t="s">
         <v>187</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
       </c>
       <c r="G26" t="s">
         <v>188</v>
@@ -5076,13 +5231,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="5:11">
+    <row r="27">
       <c r="E27" t="s">
         <v>187</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
       </c>
       <c r="G27" t="s">
         <v>188</v>
@@ -5094,13 +5248,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="5:11">
+    <row r="28">
       <c r="E28" t="s">
         <v>187</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28">
         <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-19</v>
       </c>
       <c r="G28" t="s">
         <v>188</v>
@@ -5113,53 +5266,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
-  <cols>
-    <col min="10" max="10" width="14.5833333333333" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="30.1666666666667" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5169,13 +5313,13 @@
       <c r="C7" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="112">
         <v>191</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="113">
         <v>192</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="114">
         <v>193</v>
       </c>
       <c r="G7" t="s">
@@ -5187,13 +5331,13 @@
       <c r="I7" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s" s="115">
         <v>197</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s" s="116">
         <v>67</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s" s="117">
         <v>68</v>
       </c>
       <c r="M7" t="s">
@@ -5203,7 +5347,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8">
       <c r="E8" t="s">
         <v>200</v>
       </c>
@@ -5236,48 +5380,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="60">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="61">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="63">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="64">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="65">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="66">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5287,13 +5427,13 @@
       <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="118">
         <v>206</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="119">
         <v>207</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="120">
         <v>208</v>
       </c>
       <c r="G7" t="s">
@@ -5311,59 +5451,49 @@
       <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s" s="121">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="5" max="5" width="24.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="33.9166666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="67">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="68">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="69">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="70">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="71">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="72">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5373,19 +5503,19 @@
       <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="122">
         <v>214</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="123">
         <v>215</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="124">
         <v>67</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s" s="125">
         <v>68</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s" s="126">
         <v>216</v>
       </c>
       <c r="I7" t="s">
@@ -5398,7 +5528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8">
       <c r="E8" t="s">
         <v>219</v>
       </c>
@@ -5421,7 +5551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="5:11">
+    <row r="9">
       <c r="E9" t="s">
         <v>220</v>
       </c>
@@ -5444,7 +5574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="5:11">
+    <row r="10">
       <c r="E10" t="s">
         <v>222</v>
       </c>
@@ -5467,7 +5597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="5:11">
+    <row r="11">
       <c r="E11" t="s">
         <v>223</v>
       </c>
@@ -5490,7 +5620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="5:11">
+    <row r="12">
       <c r="E12" t="s">
         <v>224</v>
       </c>
@@ -5513,7 +5643,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="5:11">
+    <row r="13">
       <c r="E13" t="s">
         <v>226</v>
       </c>
@@ -5536,7 +5666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="5:11">
+    <row r="14">
       <c r="E14" t="s">
         <v>227</v>
       </c>
@@ -5559,7 +5689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="5:11">
+    <row r="15">
       <c r="E15" t="s">
         <v>229</v>
       </c>
@@ -5582,7 +5712,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="5:11">
+    <row r="16">
       <c r="E16" t="s">
         <v>230</v>
       </c>
@@ -5605,7 +5735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="5:11">
+    <row r="17">
       <c r="E17" t="s">
         <v>232</v>
       </c>
@@ -5628,7 +5758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18">
       <c r="E18" t="s">
         <v>233</v>
       </c>
@@ -5651,7 +5781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19">
       <c r="E19" t="s">
         <v>234</v>
       </c>
@@ -5674,7 +5804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5684,22 +5814,22 @@
       <c r="C21" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s" s="127">
         <v>236</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s" s="128">
         <v>237</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s" s="129">
         <v>238</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s" s="130">
         <v>208</v>
       </c>
       <c r="H21" t="s">
         <v>239</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" t="s" s="131">
         <v>240</v>
       </c>
       <c r="J21" t="s">
@@ -5712,13 +5842,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="5:12">
+    <row r="22">
       <c r="E22" t="s">
         <v>244</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G22" t="s">
         <v>245</v>
@@ -5726,9 +5855,8 @@
       <c r="H22" t="s">
         <v>176</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -5737,13 +5865,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="5:12">
+    <row r="23">
       <c r="E23" t="s">
         <v>246</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
       </c>
       <c r="G23" t="s">
         <v>245</v>
@@ -5751,9 +5878,8 @@
       <c r="H23" t="s">
         <v>155</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -5762,13 +5888,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24">
       <c r="E24" t="s">
         <v>247</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
       </c>
       <c r="G24" t="s">
         <v>245</v>
@@ -5776,9 +5901,8 @@
       <c r="H24" t="s">
         <v>132</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -5787,13 +5911,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="5:12">
+    <row r="25">
       <c r="E25" t="s">
         <v>248</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
       </c>
       <c r="G25" t="s">
         <v>245</v>
@@ -5801,9 +5924,8 @@
       <c r="H25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -5812,13 +5934,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="5:12">
+    <row r="26">
       <c r="E26" t="s">
         <v>249</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G26" t="s">
         <v>245</v>
@@ -5826,9 +5947,8 @@
       <c r="H26" t="s">
         <v>125</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -5837,13 +5957,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="5:12">
+    <row r="27">
       <c r="E27" t="s">
         <v>250</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G27" t="s">
         <v>245</v>
@@ -5851,9 +5970,8 @@
       <c r="H27" t="s">
         <v>119</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
@@ -5862,13 +5980,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="5:12">
+    <row r="28">
       <c r="E28" t="s">
         <v>251</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28">
         <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-19</v>
       </c>
       <c r="G28" t="s">
         <v>245</v>
@@ -5883,7 +6000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -5893,22 +6010,22 @@
       <c r="C30" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s" s="132">
         <v>236</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s" s="133">
         <v>237</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s" s="134">
         <v>238</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s" s="135">
         <v>208</v>
       </c>
       <c r="H30" t="s">
         <v>239</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s" s="136">
         <v>240</v>
       </c>
       <c r="J30" t="s">
@@ -5921,13 +6038,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="5:12">
+    <row r="31">
       <c r="E31" t="s">
         <v>253</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
       </c>
       <c r="G31" t="s">
         <v>254</v>
@@ -5935,9 +6051,8 @@
       <c r="H31" t="s">
         <v>112</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K31" t="s">
         <v>70</v>
@@ -5946,13 +6061,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="5:12">
+    <row r="32">
       <c r="E32" t="s">
         <v>255</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G32" t="s">
         <v>254</v>
@@ -5960,9 +6074,8 @@
       <c r="H32" t="s">
         <v>176</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
@@ -5971,13 +6084,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="5:12">
+    <row r="33">
       <c r="E33" t="s">
         <v>256</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33">
         <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
       </c>
       <c r="G33" t="s">
         <v>254</v>
@@ -5985,9 +6097,8 @@
       <c r="H33" t="s">
         <v>155</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K33" t="s">
         <v>70</v>
@@ -5996,13 +6107,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="5:12">
+    <row r="34">
       <c r="E34" t="s">
         <v>257</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34">
         <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
       </c>
       <c r="G34" t="s">
         <v>254</v>
@@ -6010,9 +6120,8 @@
       <c r="H34" t="s">
         <v>146</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K34" t="s">
         <v>70</v>
@@ -6021,13 +6130,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="5:12">
+    <row r="35">
       <c r="E35" t="s">
         <v>258</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35">
         <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
       </c>
       <c r="G35" t="s">
         <v>254</v>
@@ -6035,9 +6143,8 @@
       <c r="H35" t="s">
         <v>166</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K35" t="s">
         <v>70</v>
@@ -6046,13 +6153,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="5:12">
+    <row r="36">
       <c r="E36" t="s">
         <v>259</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G36" t="s">
         <v>254</v>
@@ -6060,9 +6166,8 @@
       <c r="H36" t="s">
         <v>125</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K36" t="s">
         <v>70</v>
@@ -6071,13 +6176,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="5:12">
+    <row r="37">
       <c r="E37" t="s">
         <v>260</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G37" t="s">
         <v>254</v>
@@ -6085,9 +6189,8 @@
       <c r="H37" t="s">
         <v>119</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K37" t="s">
         <v>70</v>
@@ -6096,13 +6199,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="5:12">
+    <row r="38">
       <c r="E38" t="s">
         <v>261</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38">
         <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
       </c>
       <c r="G38" t="s">
         <v>254</v>
@@ -6117,13 +6219,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="5:12">
+    <row r="39">
       <c r="E39" t="s">
         <v>262</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39">
         <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-19</v>
       </c>
       <c r="G39" t="s">
         <v>254</v>
@@ -6138,7 +6239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -6148,16 +6249,16 @@
       <c r="C41" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s" s="137">
         <v>236</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s" s="138">
         <v>237</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s" s="139">
         <v>238</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s" s="140">
         <v>208</v>
       </c>
       <c r="H41" t="s">
@@ -6176,13 +6277,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="5:12">
+    <row r="42">
       <c r="E42" t="s">
         <v>264</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42">
         <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
       </c>
       <c r="G42" t="s">
         <v>265</v>
@@ -6195,48 +6295,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="74">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="75">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="76">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="77">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="78">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="79">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="80">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6246,13 +6342,13 @@
       <c r="C7" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="141">
         <v>267</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="142">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="143">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6279,10 +6375,10 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" t="s" s="144">
         <v>67</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s" s="145">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
@@ -6290,48 +6386,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="81">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="82">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="84">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="85">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="86">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="87">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6341,13 +6433,13 @@
       <c r="C7" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="146">
         <v>275</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="147">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="148">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6371,15 +6463,14 @@
       <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s" s="149">
         <v>67</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" t="s" s="150">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="325">
   <si>
     <r>
       <rPr>
@@ -2002,7 +2002,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2053,366 +2053,435 @@
     <t>filter_strategy</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-8</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
+    <t>#tenant_id</t>
+  </si>
+  <si>
+    <t>短信服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server</t>
+  </si>
+  <si>
+    <t>server_type_code</t>
+  </si>
+  <si>
+    <t>end_point</t>
+  </si>
+  <si>
+    <t>access_key</t>
+  </si>
+  <si>
+    <t>access_key_secret</t>
+  </si>
+  <si>
+    <t>sign_name</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server-8</t>
+  </si>
+  <si>
+    <t>平台默认配置</t>
+  </si>
+  <si>
+    <t>BAIDU</t>
+  </si>
+  <si>
+    <t>http://sms.bj.baidubce.com</t>
+  </si>
+  <si>
+    <t>消息模板</t>
+  </si>
+  <si>
+    <t>hmsg_message_template</t>
+  </si>
+  <si>
+    <t>*template_id</t>
+  </si>
+  <si>
+    <t>#template_code</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>template_title</t>
+  </si>
+  <si>
+    <t>template_content</t>
+  </si>
+  <si>
+    <t>message_category_code</t>
+  </si>
+  <si>
+    <t>message_subcategory_code</t>
+  </si>
+  <si>
+    <t>external_code</t>
+  </si>
+  <si>
+    <t>sql_value</t>
+  </si>
+  <si>
+    <t>#lang</t>
+  </si>
+  <si>
+    <t>editor_type</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-8</t>
+  </si>
+  <si>
+    <t>HIAM.CAPTCHA</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:8d3cb694-fb20-46b7-80f3-0bbee144c467</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-9</t>
+  </si>
+  <si>
+    <t>HIAM.CREATE_USER</t>
+  </si>
+  <si>
+    <t>创建用户</t>
+  </si>
+  <si>
+    <t>账号创建成功</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:d6514199-443b-4684-a874-35bbeb662400</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-10</t>
+  </si>
+  <si>
+    <t>HIAM.FIND_PASSWORD</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>smsTpl:ebdac3a2-0c67-4944-b15e-3595d96e5d6b</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-11</t>
+  </si>
+  <si>
+    <t>HIAM.MODIFY_EMAIL</t>
+  </si>
+  <si>
+    <t>修改邮箱</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在修改邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-12</t>
+  </si>
+  <si>
+    <t>HIAM.MODIFY_PASSWORD</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>正在修改登录密码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Hzero】&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:2c665b32-37b2-4aad-91d3-c039b631be09</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-13</t>
+  </si>
+  <si>
+    <t>HIAM.MODIFY_PASSWORD_SUCCESS</t>
+  </si>
+  <si>
+    <t>登录密码修改成功</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;用户${loginName}密码修改成功，请谨慎保管！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-14</t>
+  </si>
+  <si>
+    <t>HIAM.MODIFY_PHONE</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:41dab45c-bee8-44c3-87cd-900821ca748a</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-15</t>
+  </si>
+  <si>
+    <t>HIAM.REGISTER_USER</t>
+  </si>
+  <si>
+    <t>注册用户</t>
+  </si>
+  <si>
+    <t>账号注册</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>smsTpl:6f2ec043-687b-43dc-a231-53487467fe76</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-16</t>
+  </si>
+  <si>
+    <t>HIAM.VALIDATE_EMAIL</t>
+  </si>
+  <si>
+    <t>验证邮箱</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-17</t>
+  </si>
+  <si>
+    <t>HIAM.VALIDATE_PHONE</t>
+  </si>
+  <si>
+    <t>验证手机号</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-18</t>
+  </si>
+  <si>
+    <t>HOTH.MOBILE_LOGIN</t>
+  </si>
+  <si>
+    <t>短信登录模板</t>
+  </si>
+  <si>
+    <t>短信登录</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您正在【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-19</t>
+  </si>
+  <si>
+    <t>HOTH.MODIFY_PASSWORD</t>
+  </si>
+  <si>
+    <t>修改登录密码获取验证码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您正在修改密码，验证码：【${captcha}】，请在5分钟内完成验证！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:19cb73e9-0eb9-411d-a316-c2996eb90e9c</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-20</t>
+  </si>
+  <si>
+    <t>HIAM.MOD_PWD_SUCC_WITH_PWD</t>
+  </si>
+  <si>
+    <t>登录密码修改成功(带密码)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;用户&lt;strong&gt;${loginName}&lt;/strong&gt;密码修改成功，新密码为&lt;span class="marker"&gt;${{password}}&lt;/span&gt;，请谨慎保管！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-21</t>
+  </si>
+  <si>
+    <t>HIAM.ACTIVATE_REGISTRATION</t>
+  </si>
+  <si>
+    <t>账号激活</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;你好!&lt;/p&gt;
+&lt;p&gt;感谢您注册HZERO平台。&amp;nbsp;&lt;br /&gt;
+您的登录账户为：&lt;span style="color:#2ecc71"&gt;${account}&lt;/span&gt;。请点击以下链接激活帐号：&lt;/p&gt;
+&lt;p&gt;&lt;a href="http://hzeronb.saas.hand-china.com/iam/hzero/v1/users/register/url-activate?registerType=${registerType}&amp;amp;ticket=${ticket}" target="_blank"&gt;http://hzeronb.saas.hand-china.com/iam/hzero/v1/users/register/url-activate?registerType=${registerType}&amp;amp;ticket=${ticket}&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;如果以上链接无法点击，请将上面的地址复制到您的浏览器(如IE)的地址栏进入HZERO平台。 &lt;span style="color:#2ecc71"&gt;(该链接在24小时内有效，24小时后点击无效)&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#f1c40f"&gt;(如果该请求不是由您发出，可能您的账号存在安全风险)&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-22</t>
+  </si>
+  <si>
+    <t>HIAM.USER_PASSWORD_WILL_EXPIRE</t>
+  </si>
+  <si>
+    <t>用户密码即将过期,请及时修改密码</t>
+  </si>
+  <si>
+    <t>您的密码即将过期,请及时修改密码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;用户&lt;span style="color:#2ecc71"&gt; ${loginName}&amp;nbsp;&lt;/span&gt;，您好：&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp; 您的密码将在&amp;nbsp;&lt;span style="color:#e74c3c"&gt;${expireDay}&amp;nbsp;&lt;/span&gt;天后过期，请尽快更改密码。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-23</t>
+  </si>
+  <si>
+    <t>HOTH.EMAIL_LOGIN</t>
+  </si>
+  <si>
+    <t>邮箱登录模板</t>
+  </si>
+  <si>
+    <t>邮箱登录</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您正在登录【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>sms-tmpl-TGdUOR66272</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
     <t>tenant_id:zh_CN</t>
   </si>
   <si>
     <t>tenant_id:en_US</t>
   </si>
   <si>
-    <t>hmsg_email_server-8</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
-  </si>
-  <si>
-    <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>短信服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_sms_server</t>
-  </si>
-  <si>
-    <t>server_type_code</t>
-  </si>
-  <si>
-    <t>end_point</t>
-  </si>
-  <si>
-    <t>access_key</t>
-  </si>
-  <si>
-    <t>access_key_secret</t>
-  </si>
-  <si>
-    <t>sign_name</t>
-  </si>
-  <si>
-    <t>hmsg_sms_server-8</t>
-  </si>
-  <si>
-    <t>平台默认配置</t>
-  </si>
-  <si>
-    <t>BAIDU</t>
-  </si>
-  <si>
-    <t>http://sms.bj.baidubce.com</t>
-  </si>
-  <si>
-    <t>消息模板</t>
-  </si>
-  <si>
-    <t>hmsg_message_template</t>
-  </si>
-  <si>
-    <t>*template_id</t>
-  </si>
-  <si>
-    <t>#template_code</t>
-  </si>
-  <si>
-    <t>template_name</t>
-  </si>
-  <si>
-    <t>template_title</t>
-  </si>
-  <si>
-    <t>template_content</t>
-  </si>
-  <si>
-    <t>message_category_code</t>
-  </si>
-  <si>
-    <t>message_subcategory_code</t>
-  </si>
-  <si>
-    <t>external_code</t>
-  </si>
-  <si>
-    <t>sql_value</t>
-  </si>
-  <si>
-    <t>#lang</t>
-  </si>
-  <si>
-    <t>editor_type</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-8</t>
-  </si>
-  <si>
-    <t>HIAM.CAPTCHA</t>
-  </si>
-  <si>
-    <t>验证码</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:8d3cb694-fb20-46b7-80f3-0bbee144c467</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-9</t>
-  </si>
-  <si>
-    <t>HIAM.CREATE_USER</t>
-  </si>
-  <si>
-    <t>创建用户</t>
-  </si>
-  <si>
-    <t>账号创建成功</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:d6514199-443b-4684-a874-35bbeb662400</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-10</t>
-  </si>
-  <si>
-    <t>HIAM.FIND_PASSWORD</t>
-  </si>
-  <si>
-    <t>找回密码</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SYSTEM</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>smsTpl:ebdac3a2-0c67-4944-b15e-3595d96e5d6b</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-11</t>
-  </si>
-  <si>
-    <t>HIAM.MODIFY_EMAIL</t>
-  </si>
-  <si>
-    <t>修改邮箱</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在修改邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-12</t>
-  </si>
-  <si>
-    <t>HIAM.MODIFY_PASSWORD</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>正在修改登录密码</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Hzero】&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:2c665b32-37b2-4aad-91d3-c039b631be09</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-13</t>
-  </si>
-  <si>
-    <t>HIAM.MODIFY_PASSWORD_SUCCESS</t>
-  </si>
-  <si>
-    <t>登录密码修改成功</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;用户${loginName}密码修改成功，请谨慎保管！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-14</t>
-  </si>
-  <si>
-    <t>HIAM.MODIFY_PHONE</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:41dab45c-bee8-44c3-87cd-900821ca748a</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-15</t>
-  </si>
-  <si>
-    <t>HIAM.MOD_PWD_SUCC_WITH_PWD</t>
-  </si>
-  <si>
-    <t>登录密码修改成功(带密码)</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;用户&lt;strong&gt;${loginName}&lt;/strong&gt;密码修改成功，新密码为&lt;span class="marker"&gt;${{password}}&lt;/span&gt;，请谨慎保管！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-16</t>
-  </si>
-  <si>
-    <t>HIAM.REGISTER_USER</t>
-  </si>
-  <si>
-    <t>注册用户</t>
-  </si>
-  <si>
-    <t>账号注册</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>smsTpl:6f2ec043-687b-43dc-a231-53487467fe76</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-17</t>
-  </si>
-  <si>
-    <t>HIAM.VALIDATE_EMAIL</t>
-  </si>
-  <si>
-    <t>验证邮箱</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-18</t>
-  </si>
-  <si>
-    <t>HIAM.VALIDATE_PHONE</t>
-  </si>
-  <si>
-    <t>验证手机号</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-19</t>
-  </si>
-  <si>
-    <t>HOTH.MOBILE_LOGIN</t>
-  </si>
-  <si>
-    <t>短信登录模板</t>
-  </si>
-  <si>
-    <t>短信登录</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您正在【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-20</t>
-  </si>
-  <si>
-    <t>HOTH.MODIFY_PASSWORD</t>
-  </si>
-  <si>
-    <t>修改登录密码获取验证码</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您正在修改密码，验证码：【${captcha}】，请在5分钟内完成验证！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:19cb73e9-0eb9-411d-a316-c2996eb90e9c</t>
-  </si>
-  <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -2422,6 +2491,15 @@
     <t>Verification code</t>
   </si>
   <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>registerType</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
     <t>接收配置</t>
   </si>
   <si>
@@ -2512,51 +2590,108 @@
     <t>hmsg_template_server-8</t>
   </si>
   <si>
+    <t>Verification Code</t>
+  </si>
+  <si>
     <t>hmsg_template_server-9</t>
   </si>
   <si>
     <t>用户创建成功</t>
   </si>
   <si>
+    <t>User created successfully</t>
+  </si>
+  <si>
     <t>hmsg_template_server-10</t>
   </si>
   <si>
+    <t>Find the password</t>
+  </si>
+  <si>
     <t>hmsg_template_server-11</t>
   </si>
   <si>
+    <t>Modify mailbox</t>
+  </si>
+  <si>
     <t>hmsg_template_server-12</t>
   </si>
   <si>
     <t>用户修改密码成功</t>
   </si>
   <si>
+    <t>User changed password successfully</t>
+  </si>
+  <si>
     <t>hmsg_template_server-13</t>
   </si>
   <si>
+    <t>Modify mobile phone number</t>
+  </si>
+  <si>
     <t>hmsg_template_server-14</t>
   </si>
   <si>
     <t>用户注册</t>
   </si>
   <si>
+    <t>User registration</t>
+  </si>
+  <si>
     <t>hmsg_template_server-15</t>
   </si>
   <si>
+    <t>Verify email</t>
+  </si>
+  <si>
     <t>hmsg_template_server-16</t>
   </si>
   <si>
     <t>验证手机</t>
   </si>
   <si>
+    <t>Verify mobile phone</t>
+  </si>
+  <si>
     <t>hmsg_template_server-17</t>
   </si>
   <si>
+    <t>SMS login</t>
+  </si>
+  <si>
     <t>hmsg_template_server-18</t>
   </si>
   <si>
+    <t>Modify login password to get verification code</t>
+  </si>
+  <si>
     <t>hmsg_template_server-19</t>
   </si>
   <si>
+    <t>Login password modified successfully (with password)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-20</t>
+  </si>
+  <si>
+    <t>User password is about to expire, please change the password in time</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-21</t>
+  </si>
+  <si>
+    <t>Email login</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-22</t>
+  </si>
+  <si>
+    <t>账户激活</t>
+  </si>
+  <si>
+    <t>Account activation</t>
+  </si>
+  <si>
     <t>发送配置(邮箱)</t>
   </si>
   <si>
@@ -2584,21 +2719,12 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-22</t>
+    <t>hmsg_template_server_line-25</t>
   </si>
   <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-23</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-24</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-25</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-26</t>
   </si>
   <si>
@@ -2608,30 +2734,30 @@
     <t>hmsg_template_server_line-28</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-33</t>
+  </si>
+  <si>
     <t>发送配置(短信)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-31</t>
+    <t>hmsg_template_server_line-36</t>
   </si>
   <si>
     <t>SMS</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-32</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-33</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-34</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-35</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-36</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-37</t>
   </si>
   <si>
@@ -2641,13 +2767,34 @@
     <t>hmsg_template_server_line-39</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-40</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-41</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-42</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-43</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-44</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-45</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-42</t>
+    <t>hmsg_template_server_line-48</t>
   </si>
   <si>
     <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-49</t>
   </si>
   <si>
     <t>微信企业号配置</t>
@@ -4314,7 +4461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4403,49 +4550,61 @@
       <c r="S7" t="s" s="92">
         <v>68</v>
       </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="T8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -4456,25 +4615,31 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s" s="93">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s" s="94">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s" s="95">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="96">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="97">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4484,7 +4649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4523,10 +4688,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s" s="98">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s" s="99">
         <v>54</v>
@@ -4541,19 +4706,19 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
@@ -4564,43 +4729,58 @@
       <c r="P7" t="s" s="102">
         <v>68</v>
       </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4610,7 +4790,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4649,620 +4829,923 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s" s="103">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s" s="104">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s" s="105">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s" s="106">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
       <c r="P7" t="s" s="107">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" t="s">
         <v>120</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
         <v>121</v>
       </c>
-      <c r="I9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>117</v>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
         <v>132</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>133</v>
       </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" t="s">
-        <v>129</v>
-      </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R14" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R18" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R19" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
-      </c>
-      <c r="L20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="R20" t="s">
+        <v>82</v>
+      </c>
+      <c r="S20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" t="s">
+        <v>82</v>
+      </c>
+      <c r="S21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" t="s" s="108">
-        <v>181</v>
-      </c>
-      <c r="E22" t="s" s="109">
-        <v>182</v>
-      </c>
-      <c r="F22" t="s" s="110">
-        <v>183</v>
-      </c>
-      <c r="G22" t="s" s="111">
-        <v>184</v>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" t="s">
-        <v>68</v>
+        <v>192</v>
+      </c>
+      <c r="N22" t="s">
+        <v>120</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" t="s">
+        <v>82</v>
+      </c>
+      <c r="S22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23">
-        <f>消息模板!$E$8</f>
+        <v>193</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24">
-        <f>消息模板!$E$10</f>
-      </c>
-      <c r="G24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" t="s">
-        <v>79</v>
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25">
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25">
-        <f>消息模板!$E$11</f>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s" s="108">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s" s="109">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s" s="110">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s" s="111">
+        <v>203</v>
+      </c>
+      <c r="H25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F26">
-        <f>消息模板!$E$12</f>
+        <f>消息模板!$E$8</f>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F27">
-        <f>消息模板!$E$14</f>
+        <f>消息模板!$E$12</f>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F28">
-        <f>消息模板!$E$19</f>
+        <f>消息模板!$E$18</f>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29">
+        <f>消息模板!$E$11</f>
+      </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30">
+        <f>消息模板!$E$14</f>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31">
+        <f>消息模板!$E$10</f>
+      </c>
+      <c r="G31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32">
+        <f>消息模板!$E$21</f>
+      </c>
+      <c r="G32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33">
+        <f>消息模板!$E$21</f>
+      </c>
+      <c r="G33" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34">
+        <f>消息模板!$E$21</f>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5311,28 +5794,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s" s="112">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s" s="113">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s" s="114">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J7" t="s" s="115">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s" s="116">
         <v>67</v>
@@ -5341,42 +5824,42 @@
         <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="N7" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5425,34 +5908,34 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s" s="118">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s" s="119">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s" s="120">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
       <c r="L7" t="s" s="121">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +5945,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5501,13 +5984,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s" s="122">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s" s="123">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s" s="124">
         <v>67</v>
@@ -5516,188 +5999,236 @@
         <v>68</v>
       </c>
       <c r="H7" t="s" s="126">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J12" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
         <v>162</v>
@@ -5706,44 +6237,56 @@
         <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>170</v>
@@ -5752,21 +6295,27 @@
         <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>176</v>
@@ -5775,523 +6324,843 @@
         <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" t="s" s="127">
-        <v>236</v>
-      </c>
-      <c r="E21" t="s" s="128">
-        <v>237</v>
-      </c>
-      <c r="F21" t="s" s="129">
-        <v>238</v>
-      </c>
-      <c r="G21" t="s" s="130">
-        <v>208</v>
+      <c r="E21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I21" t="s" s="131">
-        <v>240</v>
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="K21" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>243</v>
+        <v>82</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22">
-        <f>发送配置!$E$18</f>
+        <v>275</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22">
-        <f>邮箱服务配置!$E$8</f>
+        <v>185</v>
+      </c>
+      <c r="I22" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" t="s">
+        <v>277</v>
       </c>
       <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" t="s" s="127">
+        <v>279</v>
+      </c>
+      <c r="E24" t="s" s="128">
+        <v>280</v>
+      </c>
+      <c r="F24" t="s" s="129">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s" s="130">
+        <v>232</v>
+      </c>
+      <c r="H24" t="s">
+        <v>282</v>
+      </c>
+      <c r="I24" t="s" s="131">
+        <v>283</v>
+      </c>
+      <c r="J24" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
         <v>70</v>
-      </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23">
-        <f>发送配置!$E$14</f>
-      </c>
-      <c r="G23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24">
-        <f>发送配置!$E$11</f>
-      </c>
-      <c r="G24" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24">
-        <f>邮箱服务配置!$E$8</f>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="F25">
-        <f>发送配置!$E$15</f>
+        <f>发送配置!$E$18</f>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I25">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="F26">
-        <f>发送配置!$E$10</f>
+        <f>发送配置!$E$14</f>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I26">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="F27">
-        <f>发送配置!$E$9</f>
+        <f>发送配置!$E$11</f>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I27">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="F28">
-        <f>发送配置!$E$19</f>
+        <f>发送配置!$E$15</f>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="I28">
+        <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29">
+        <f>发送配置!$E$10</f>
+      </c>
+      <c r="G29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29">
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" t="s" s="132">
-        <v>236</v>
-      </c>
-      <c r="E30" t="s" s="133">
-        <v>237</v>
-      </c>
-      <c r="F30" t="s" s="134">
-        <v>238</v>
-      </c>
-      <c r="G30" t="s" s="135">
-        <v>208</v>
+      <c r="E30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30">
+        <f>发送配置!$E$9</f>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
-      </c>
-      <c r="I30" t="s" s="136">
-        <v>240</v>
-      </c>
-      <c r="J30" t="s">
-        <v>241</v>
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>81</v>
+      </c>
+      <c r="M30" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="F31">
-        <f>发送配置!$E$8</f>
+        <f>发送配置!$E$19</f>
       </c>
       <c r="G31" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31">
-        <f>短信服务配置!$E$8</f>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F32">
-        <f>发送配置!$E$18</f>
+        <f>发送配置!$E$21</f>
       </c>
       <c r="G32" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32">
-        <f>短信服务配置!$E$8</f>
+        <v>194</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F33">
-        <f>发送配置!$E$14</f>
+        <f>发送配置!$E$22</f>
       </c>
       <c r="G33" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33">
-        <f>短信服务配置!$E$8</f>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" t="s" s="132">
+        <v>279</v>
+      </c>
+      <c r="E35" t="s" s="133">
+        <v>280</v>
+      </c>
+      <c r="F35" t="s" s="134">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s" s="135">
+        <v>232</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s" s="136">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" t="s">
         <v>70</v>
-      </c>
-      <c r="L33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34">
-        <f>发送配置!$E$13</f>
-      </c>
-      <c r="G34" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35">
-        <f>发送配置!$E$16</f>
-      </c>
-      <c r="G35" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" t="s">
-        <v>166</v>
-      </c>
-      <c r="I35">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="F36">
-        <f>发送配置!$E$10</f>
+        <f>发送配置!$E$8</f>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I36">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M36" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F37">
-        <f>发送配置!$E$9</f>
+        <f>发送配置!$E$18</f>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="I37">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M37" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F38">
-        <f>发送配置!$E$17</f>
+        <f>发送配置!$E$14</f>
       </c>
       <c r="G38" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H38" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="I38">
+        <f>短信服务配置!$E$8</f>
       </c>
       <c r="K38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M38" t="s">
+        <v>82</v>
+      </c>
+      <c r="N38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="F39">
-        <f>发送配置!$E$19</f>
+        <f>发送配置!$E$13</f>
       </c>
       <c r="G39" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="I39">
+        <f>短信服务配置!$E$8</f>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40">
+        <f>发送配置!$E$16</f>
+      </c>
+      <c r="G40" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40">
+        <f>短信服务配置!$E$8</f>
+      </c>
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" t="s" s="137">
-        <v>236</v>
-      </c>
-      <c r="E41" t="s" s="138">
-        <v>237</v>
-      </c>
-      <c r="F41" t="s" s="139">
-        <v>238</v>
-      </c>
-      <c r="G41" t="s" s="140">
-        <v>208</v>
+      <c r="E41" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41">
+        <f>发送配置!$E$10</f>
+      </c>
+      <c r="G41" t="s">
+        <v>299</v>
       </c>
       <c r="H41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I41" t="s">
-        <v>240</v>
-      </c>
-      <c r="J41" t="s">
-        <v>241</v>
+        <v>129</v>
+      </c>
+      <c r="I41">
+        <f>短信服务配置!$E$8</f>
       </c>
       <c r="K41" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>243</v>
+        <v>81</v>
+      </c>
+      <c r="M41" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="F42">
+        <f>发送配置!$E$9</f>
+      </c>
+      <c r="G42" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42">
+        <f>短信服务配置!$E$8</f>
+      </c>
+      <c r="K42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43">
+        <f>发送配置!$E$17</f>
+      </c>
+      <c r="G43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44">
+        <f>发送配置!$E$19</f>
+      </c>
+      <c r="G44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45">
+        <f>发送配置!$E$22</f>
+      </c>
+      <c r="G45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s" s="137">
+        <v>279</v>
+      </c>
+      <c r="E47" t="s" s="138">
+        <v>280</v>
+      </c>
+      <c r="F47" t="s" s="139">
+        <v>281</v>
+      </c>
+      <c r="G47" t="s" s="140">
+        <v>232</v>
+      </c>
+      <c r="H47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" t="s">
+        <v>283</v>
+      </c>
+      <c r="J47" t="s">
+        <v>284</v>
+      </c>
+      <c r="K47" t="s">
+        <v>285</v>
+      </c>
+      <c r="L47" t="s">
+        <v>286</v>
+      </c>
+      <c r="M47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48">
         <f>发送配置!$E$12</f>
       </c>
-      <c r="G42" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" t="s">
-        <v>79</v>
+      <c r="G48" t="s">
+        <v>311</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+      <c r="L48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49">
+        <f>发送配置!$E$20</f>
+      </c>
+      <c r="G49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H49" t="s">
+        <v>189</v>
+      </c>
+      <c r="L49" t="s">
+        <v>81</v>
+      </c>
+      <c r="M49" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6300,6 +7169,103 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="74">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="75">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="76">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="77">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="78">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="79">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="80">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s" s="141">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s" s="142">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="143">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M7" t="s">
+        <v>319</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s" s="144">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s" s="145">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>320</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6308,27 +7274,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="74">
+      <c r="A1" t="s" s="81">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" t="s" s="82">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" t="s" s="84">
         <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="s" s="78">
+      <c r="E4" t="s" s="85">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" t="s" s="86">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" t="s" s="87">
         <v>49</v>
       </c>
     </row>
@@ -6340,15 +7306,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" t="s" s="141">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s" s="142">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s" s="146">
+        <v>322</v>
+      </c>
+      <c r="E7" t="s" s="147">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="143">
+      <c r="F7" t="s" s="148">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6358,107 +7324,16 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M7" t="s">
-        <v>272</v>
-      </c>
-      <c r="N7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" t="s" s="144">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s" s="145">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="82">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="84">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="86">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s" s="87">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" t="s" s="146">
-        <v>275</v>
-      </c>
-      <c r="E7" t="s" s="147">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s" s="148">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="M7" t="s">
         <v>65</v>
@@ -6468,6 +7343,12 @@
       </c>
       <c r="O7" t="s" s="150">
         <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -3,37 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
-    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
-    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
-    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
-    <sheet name="接收组" r:id="rId9" sheetId="6"/>
-    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
-    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
-    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
+    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
+    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
+    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
+    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
+    <sheet name="接收组" sheetId="6" r:id="rId6"/>
+    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
+    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
+    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="324">
   <si>
     <r>
       <rPr>
@@ -2098,9 +2098,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -2159,9 +2156,6 @@
   </si>
   <si>
     <t>消息模板</t>
-  </si>
-  <si>
-    <t>hmsg_message_template</t>
   </si>
   <si>
     <t>*template_id</t>
@@ -2832,13 +2826,16 @@
   <si>
     <t>secret</t>
   </si>
+  <si>
+    <t>hmsg_message_template</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="137">
+  <fonts count="136">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2957,599 +2954,712 @@
       <charset val="134"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3690,7 +3800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3742,6 +3852,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3757,125 +3985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4222,56 +4331,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4308,7 +4417,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4322,7 +4431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4333,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4365,7 +4474,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -4382,13 +4491,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -4396,7 +4505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -4404,7 +4513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -4412,7 +4521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -4424,21 +4533,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="145"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="145"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -4460,39 +4569,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:T8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:20">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:20">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4502,13 +4613,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="88">
+      <c r="D7" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="89">
+      <c r="E7" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="90">
+      <c r="F7" s="85" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4544,20 +4655,17 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="91">
+      <c r="R7" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="S7" t="s" s="92">
+      <c r="S7" s="87" t="s">
         <v>68</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20">
       <c r="E8" t="s">
         <v>71</v>
       </c>
@@ -4603,11 +4711,8 @@
       <c r="T8" t="s">
         <v>82</v>
       </c>
-      <c r="U8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4615,25 +4720,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s" s="93">
+      <c r="E10" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s" s="94">
+      <c r="F10" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F10" t="s" s="95">
+      <c r="G10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s" s="96">
+      <c r="H10" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="92" t="s">
         <v>89</v>
-      </c>
-      <c r="I10" t="s" s="97">
-        <v>90</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
@@ -4643,44 +4748,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:R8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:18">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:18">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4688,15 +4796,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s" s="98">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s" s="99">
+      <c r="E7" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="100">
+      <c r="F7" s="95" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4706,57 +4814,54 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>96</v>
-      </c>
-      <c r="M7" t="s">
-        <v>97</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s" s="101">
+      <c r="O7" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="P7" t="s" s="102">
+      <c r="P7" s="97" t="s">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
         <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
       </c>
       <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="H8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
       </c>
       <c r="K8" t="s">
         <v>78</v>
@@ -4779,49 +4884,54 @@
       <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:R23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:18">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:18">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4829,78 +4939,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s" s="103">
+      <c r="F7" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s" s="104">
+      <c r="G7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s" s="105">
+      <c r="H7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>106</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>107</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>108</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="100" t="s">
         <v>111</v>
-      </c>
-      <c r="M7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" t="s" s="106">
-        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" t="s" s="107">
-        <v>90</v>
+      <c r="P7" s="101" t="s">
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="R7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>117</v>
       </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
         <v>118</v>
-      </c>
-      <c r="L8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
       </c>
       <c r="O8" t="s">
         <v>80</v>
@@ -4909,36 +5016,33 @@
         <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:18">
       <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
         <v>122</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>123</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>124</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" t="s">
-        <v>127</v>
-      </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
         <v>80</v>
@@ -4947,42 +5051,39 @@
         <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R9" t="s">
         <v>82</v>
       </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:18">
       <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
         <v>128</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
         <v>129</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>130</v>
       </c>
-      <c r="H10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>131</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>132</v>
       </c>
-      <c r="K10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" t="s">
-        <v>134</v>
-      </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
         <v>80</v>
@@ -4991,39 +5092,36 @@
         <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R10" t="s">
         <v>82</v>
       </c>
-      <c r="S10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:18">
       <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
         <v>135</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
         <v>136</v>
       </c>
-      <c r="G11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" t="s">
-        <v>138</v>
-      </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
         <v>80</v>
@@ -5032,36 +5130,33 @@
         <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R11" t="s">
         <v>82</v>
       </c>
-      <c r="S11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:18">
       <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
         <v>139</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>140</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>141</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="I12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" t="s">
-        <v>144</v>
-      </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
         <v>80</v>
@@ -5070,33 +5165,30 @@
         <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R12" t="s">
         <v>82</v>
       </c>
-      <c r="S12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
         <v>145</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" t="s">
         <v>146</v>
       </c>
-      <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" t="s">
-        <v>148</v>
-      </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
@@ -5105,42 +5197,39 @@
         <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R13" t="s">
         <v>82</v>
       </c>
-      <c r="S13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:18">
       <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
         <v>149</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" t="s">
         <v>150</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
         <v>151</v>
       </c>
-      <c r="H14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>153</v>
-      </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
         <v>80</v>
@@ -5149,42 +5238,39 @@
         <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R14" t="s">
         <v>82</v>
       </c>
-      <c r="S14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:18">
       <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
         <v>154</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>156</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
         <v>157</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
@@ -5193,33 +5279,30 @@
         <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R15" t="s">
         <v>82</v>
       </c>
-      <c r="S15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:18">
       <c r="E16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
         <v>161</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" t="s">
         <v>162</v>
       </c>
-      <c r="G16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" t="s">
-        <v>164</v>
-      </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
         <v>80</v>
@@ -5228,36 +5311,33 @@
         <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R16" t="s">
         <v>82</v>
       </c>
-      <c r="S16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:18">
       <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
         <v>165</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" t="s">
         <v>166</v>
       </c>
-      <c r="G17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" t="s">
-        <v>168</v>
-      </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
         <v>80</v>
@@ -5266,36 +5346,33 @@
         <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R17" t="s">
         <v>82</v>
       </c>
-      <c r="S17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:18">
       <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
         <v>169</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>170</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>171</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" t="s">
         <v>172</v>
       </c>
-      <c r="I18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>174</v>
-      </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
         <v>80</v>
@@ -5304,36 +5381,33 @@
         <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R18" t="s">
         <v>82</v>
       </c>
-      <c r="S18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:18">
       <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
         <v>175</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" t="s">
         <v>176</v>
       </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
         <v>177</v>
       </c>
-      <c r="H19" t="s">
-        <v>177</v>
-      </c>
-      <c r="I19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" t="s">
-        <v>179</v>
-      </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s">
         <v>80</v>
@@ -5342,33 +5416,30 @@
         <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s">
         <v>82</v>
       </c>
-      <c r="S19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:18">
       <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
         <v>180</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
         <v>181</v>
       </c>
-      <c r="G20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" t="s">
-        <v>183</v>
-      </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
         <v>80</v>
@@ -5377,33 +5448,30 @@
         <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R20" t="s">
         <v>82</v>
       </c>
-      <c r="S20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:18">
       <c r="E21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
         <v>184</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" t="s">
         <v>185</v>
       </c>
-      <c r="G21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" t="s">
-        <v>187</v>
-      </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
         <v>80</v>
@@ -5412,33 +5480,30 @@
         <v>81</v>
       </c>
       <c r="Q21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R21" t="s">
         <v>82</v>
       </c>
-      <c r="S21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:18">
       <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
         <v>188</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>189</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>190</v>
       </c>
-      <c r="H22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" t="s">
-        <v>192</v>
-      </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O22" t="s">
         <v>80</v>
@@ -5447,36 +5512,33 @@
         <v>81</v>
       </c>
       <c r="Q22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R22" t="s">
         <v>82</v>
       </c>
-      <c r="S22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:18">
       <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
         <v>193</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>194</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>195</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>196</v>
       </c>
-      <c r="I23" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" t="s">
-        <v>198</v>
-      </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
         <v>80</v>
@@ -5485,16 +5547,13 @@
         <v>81</v>
       </c>
       <c r="Q23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R23" t="s">
         <v>82</v>
       </c>
-      <c r="S23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -5502,54 +5561,52 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="D25" t="s" s="108">
+      <c r="F25" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="E25" t="s" s="109">
+      <c r="G25" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="F25" t="s" s="110">
+      <c r="H25" t="s">
         <v>202</v>
       </c>
-      <c r="G25" t="s" s="111">
+      <c r="I25" t="s">
         <v>203</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>204</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>205</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="E26" t="s">
         <v>206</v>
       </c>
-      <c r="K25" t="s">
+      <c r="F26" t="str">
+        <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
+      </c>
+      <c r="G26" t="s">
         <v>207</v>
       </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
         <v>208</v>
-      </c>
-      <c r="F26">
-        <f>消息模板!$E$8</f>
-      </c>
-      <c r="G26" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" t="s">
-        <v>210</v>
       </c>
       <c r="J26" t="s">
         <v>81</v>
@@ -5560,19 +5617,17 @@
       <c r="L26" t="s">
         <v>82</v>
       </c>
-      <c r="M26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:18">
       <c r="E27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27">
+        <v>206</v>
+      </c>
+      <c r="F27" t="str">
         <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
@@ -5583,19 +5638,17 @@
       <c r="L27" t="s">
         <v>82</v>
       </c>
-      <c r="M27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:18">
       <c r="E28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28">
+        <v>206</v>
+      </c>
+      <c r="F28" t="str">
         <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
@@ -5606,19 +5659,17 @@
       <c r="L28" t="s">
         <v>82</v>
       </c>
-      <c r="M28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:18">
       <c r="E29" t="s">
-        <v>208</v>
-      </c>
-      <c r="F29">
+        <v>206</v>
+      </c>
+      <c r="F29" t="str">
         <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
         <v>81</v>
@@ -5629,19 +5680,17 @@
       <c r="L29" t="s">
         <v>82</v>
       </c>
-      <c r="M29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:18">
       <c r="E30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30">
+        <v>206</v>
+      </c>
+      <c r="F30" t="str">
         <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
         <v>81</v>
@@ -5652,19 +5701,17 @@
       <c r="L30" t="s">
         <v>82</v>
       </c>
-      <c r="M30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:18">
       <c r="E31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31">
+        <v>206</v>
+      </c>
+      <c r="F31" t="str">
         <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
         <v>81</v>
@@ -5675,19 +5722,17 @@
       <c r="L31" t="s">
         <v>82</v>
       </c>
-      <c r="M31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:18">
       <c r="E32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32">
+        <v>206</v>
+      </c>
+      <c r="F32" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
@@ -5698,19 +5743,17 @@
       <c r="L32" t="s">
         <v>82</v>
       </c>
-      <c r="M32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33">
+        <v>206</v>
+      </c>
+      <c r="F33" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J33" t="s">
         <v>81</v>
@@ -5721,19 +5764,17 @@
       <c r="L33" t="s">
         <v>82</v>
       </c>
-      <c r="M33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34">
+        <v>206</v>
+      </c>
+      <c r="F34" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
         <v>81</v>
@@ -5744,49 +5785,47 @@
       <c r="L34" t="s">
         <v>82</v>
       </c>
-      <c r="M34" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:14">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:14">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5794,57 +5833,57 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s" s="112">
+      <c r="F7" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="E7" t="s" s="113">
+      <c r="G7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" t="s" s="114">
+      <c r="H7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>218</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
         <v>220</v>
       </c>
-      <c r="J7" t="s" s="115">
+      <c r="N7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" t="s" s="116">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s" s="117">
-        <v>68</v>
-      </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="8" spans="1:14">
+      <c r="E8" t="s">
         <v>222</v>
       </c>
-      <c r="N7" t="s">
+      <c r="F8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>224</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>225</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>226</v>
-      </c>
-      <c r="H8" t="s">
-        <v>227</v>
-      </c>
-      <c r="I8" t="s">
-        <v>228</v>
       </c>
       <c r="J8" t="s">
         <v>81</v>
@@ -5863,44 +5902,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:12">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="1:12">
+      <c r="E4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5908,75 +5948,81 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="D7" t="s" s="118">
+      <c r="F7" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="E7" t="s" s="119">
+      <c r="G7" t="s">
         <v>231</v>
       </c>
-      <c r="F7" t="s" s="120">
+      <c r="H7" t="s">
         <v>232</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>233</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>234</v>
-      </c>
-      <c r="I7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J7" t="s">
-        <v>236</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s" s="121">
-        <v>90</v>
+      <c r="L7" s="115" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="67">
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="68">
+      <c r="B1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="69">
+      <c r="C1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="70">
+      <c r="D1" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="71">
+    <row r="4" spans="1:12">
+      <c r="E4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="72">
+      <c r="F4" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="73">
+      <c r="G4" s="68" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5984,42 +6030,39 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="D7" t="s" s="122">
+      <c r="F7" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="E7" t="s" s="123">
+      <c r="I7" t="s">
         <v>239</v>
       </c>
-      <c r="F7" t="s" s="124">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s" s="125">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s" s="126">
+      <c r="J7" t="s">
         <v>240</v>
-      </c>
-      <c r="I7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" t="s">
-        <v>242</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12">
       <c r="E8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -6028,13 +6071,13 @@
         <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -6042,28 +6085,25 @@
       <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:12">
       <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" t="s">
         <v>245</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" t="s">
-        <v>247</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
@@ -6071,13 +6111,10 @@
       <c r="L9" t="s">
         <v>82</v>
       </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:12">
       <c r="E10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
@@ -6086,13 +6123,13 @@
         <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K10" t="s">
         <v>80</v>
@@ -6100,13 +6137,10 @@
       <c r="L10" t="s">
         <v>82</v>
       </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:12">
       <c r="E11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
@@ -6115,13 +6149,13 @@
         <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
@@ -6129,28 +6163,25 @@
       <c r="L11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:12">
       <c r="E12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J12" t="s">
         <v>252</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" t="s">
-        <v>254</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
@@ -6158,13 +6189,10 @@
       <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="M12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="E13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -6173,13 +6201,13 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
@@ -6187,28 +6215,25 @@
       <c r="L13" t="s">
         <v>82</v>
       </c>
-      <c r="M13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" t="s">
         <v>257</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" t="s">
-        <v>259</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -6216,13 +6241,10 @@
       <c r="L14" t="s">
         <v>82</v>
       </c>
-      <c r="M14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:12">
       <c r="E15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -6231,13 +6253,13 @@
         <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -6245,28 +6267,25 @@
       <c r="L15" t="s">
         <v>82</v>
       </c>
-      <c r="M15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="E16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" t="s">
         <v>262</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" t="s">
-        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -6274,13 +6293,10 @@
       <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:13">
       <c r="E17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -6289,13 +6305,13 @@
         <v>81</v>
       </c>
       <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
         <v>170</v>
       </c>
-      <c r="I17" t="s">
-        <v>172</v>
-      </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6303,13 +6319,10 @@
       <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:13">
       <c r="E18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -6318,13 +6331,13 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K18" t="s">
         <v>80</v>
@@ -6332,13 +6345,10 @@
       <c r="L18" t="s">
         <v>82</v>
       </c>
-      <c r="M18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:13">
       <c r="E19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -6347,13 +6357,13 @@
         <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K19" t="s">
         <v>80</v>
@@ -6361,13 +6371,10 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="M19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:13">
       <c r="E20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
         <v>81</v>
@@ -6376,13 +6383,13 @@
         <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K20" t="s">
         <v>80</v>
@@ -6390,13 +6397,10 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="M20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:13">
       <c r="E21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -6405,13 +6409,13 @@
         <v>81</v>
       </c>
       <c r="H21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" t="s">
         <v>194</v>
       </c>
-      <c r="I21" t="s">
-        <v>196</v>
-      </c>
       <c r="J21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K21" t="s">
         <v>80</v>
@@ -6419,28 +6423,25 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="M21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:13">
       <c r="E22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" t="s">
+        <v>274</v>
+      </c>
+      <c r="J22" t="s">
         <v>275</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" t="s">
-        <v>276</v>
-      </c>
-      <c r="J22" t="s">
-        <v>277</v>
       </c>
       <c r="K22" t="s">
         <v>80</v>
@@ -6448,11 +6449,8 @@
       <c r="L22" t="s">
         <v>82</v>
       </c>
-      <c r="M22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -6460,57 +6458,56 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="D24" t="s" s="127">
+      <c r="F24" s="123" t="s">
         <v>279</v>
       </c>
-      <c r="E24" t="s" s="128">
+      <c r="G24" s="124" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" t="s">
         <v>280</v>
       </c>
-      <c r="F24" t="s" s="129">
+      <c r="I24" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="G24" t="s" s="130">
-        <v>232</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>282</v>
       </c>
-      <c r="I24" t="s" s="131">
+      <c r="K24" t="s">
         <v>283</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>284</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
         <v>285</v>
       </c>
-      <c r="L24" t="s">
+      <c r="F25" t="str">
+        <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
+      </c>
+      <c r="G25" t="s">
         <v>286</v>
       </c>
-      <c r="M24" t="s">
-        <v>69</v>
-      </c>
-      <c r="N24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25">
-        <f>发送配置!$E$18</f>
-      </c>
-      <c r="G25" t="s">
-        <v>288</v>
-      </c>
       <c r="H25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25">
+        <v>174</v>
+      </c>
+      <c r="I25" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K25" t="s">
         <v>72</v>
@@ -6521,25 +6518,24 @@
       <c r="M25" t="s">
         <v>82</v>
       </c>
-      <c r="N25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:13">
       <c r="E26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26">
+        <v>287</v>
+      </c>
+      <c r="F26" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26">
+        <v>153</v>
+      </c>
+      <c r="I26" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K26" t="s">
         <v>72</v>
@@ -6550,25 +6546,24 @@
       <c r="M26" t="s">
         <v>82</v>
       </c>
-      <c r="N26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:13">
       <c r="E27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27">
+        <v>288</v>
+      </c>
+      <c r="F27" t="str">
         <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27">
+        <v>134</v>
+      </c>
+      <c r="I27" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K27" t="s">
         <v>72</v>
@@ -6579,25 +6574,24 @@
       <c r="M27" t="s">
         <v>82</v>
       </c>
-      <c r="N27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:13">
       <c r="E28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28">
+        <v>289</v>
+      </c>
+      <c r="F28" t="str">
         <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28">
+        <v>160</v>
+      </c>
+      <c r="I28" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K28" t="s">
         <v>72</v>
@@ -6608,25 +6602,24 @@
       <c r="M28" t="s">
         <v>82</v>
       </c>
-      <c r="N28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:13">
       <c r="E29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29">
+        <v>290</v>
+      </c>
+      <c r="F29" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29">
+        <v>127</v>
+      </c>
+      <c r="I29" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K29" t="s">
         <v>72</v>
@@ -6637,25 +6630,24 @@
       <c r="M29" t="s">
         <v>82</v>
       </c>
-      <c r="N29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:13">
       <c r="E30" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30">
+        <v>291</v>
+      </c>
+      <c r="F30" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30">
+        <v>121</v>
+      </c>
+      <c r="I30" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K30" t="s">
         <v>72</v>
@@ -6666,22 +6658,20 @@
       <c r="M30" t="s">
         <v>82</v>
       </c>
-      <c r="N30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:13">
       <c r="E31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31">
+        <v>292</v>
+      </c>
+      <c r="F31" t="str">
         <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s">
         <v>72</v>
@@ -6692,22 +6682,20 @@
       <c r="M31" t="s">
         <v>82</v>
       </c>
-      <c r="N31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:13">
       <c r="E32" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32">
+        <v>293</v>
+      </c>
+      <c r="F32" t="str">
         <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-21</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
         <v>72</v>
@@ -6718,22 +6706,20 @@
       <c r="M32" t="s">
         <v>82</v>
       </c>
-      <c r="N32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:13">
       <c r="E33" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33">
+        <v>294</v>
+      </c>
+      <c r="F33" t="str">
         <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-22</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s">
         <v>72</v>
@@ -6744,11 +6730,8 @@
       <c r="M33" t="s">
         <v>82</v>
       </c>
-      <c r="N33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -6756,57 +6739,56 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" s="129" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" s="130" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36" t="str">
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
+      </c>
+      <c r="G36" t="s">
         <v>297</v>
       </c>
-      <c r="D35" t="s" s="132">
-        <v>279</v>
-      </c>
-      <c r="E35" t="s" s="133">
-        <v>280</v>
-      </c>
-      <c r="F35" t="s" s="134">
-        <v>281</v>
-      </c>
-      <c r="G35" t="s" s="135">
-        <v>232</v>
-      </c>
-      <c r="H35" t="s">
-        <v>282</v>
-      </c>
-      <c r="I35" t="s" s="136">
-        <v>283</v>
-      </c>
-      <c r="J35" t="s">
-        <v>284</v>
-      </c>
-      <c r="K35" t="s">
-        <v>285</v>
-      </c>
-      <c r="L35" t="s">
-        <v>286</v>
-      </c>
-      <c r="M35" t="s">
-        <v>69</v>
-      </c>
-      <c r="N35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>298</v>
-      </c>
-      <c r="F36">
-        <f>发送配置!$E$8</f>
-      </c>
-      <c r="G36" t="s">
-        <v>299</v>
-      </c>
       <c r="H36" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36">
+        <v>114</v>
+      </c>
+      <c r="I36" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K36" t="s">
         <v>72</v>
@@ -6817,25 +6799,24 @@
       <c r="M36" t="s">
         <v>82</v>
       </c>
-      <c r="N36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:13">
       <c r="E37" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37">
+        <v>298</v>
+      </c>
+      <c r="F37" t="str">
         <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
       </c>
       <c r="G37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
-      </c>
-      <c r="I37">
+        <v>174</v>
+      </c>
+      <c r="I37" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K37" t="s">
         <v>72</v>
@@ -6846,25 +6827,24 @@
       <c r="M37" t="s">
         <v>82</v>
       </c>
-      <c r="N37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38">
+        <v>299</v>
+      </c>
+      <c r="F38" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
-      </c>
-      <c r="I38">
+        <v>153</v>
+      </c>
+      <c r="I38" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K38" t="s">
         <v>72</v>
@@ -6875,25 +6855,24 @@
       <c r="M38" t="s">
         <v>82</v>
       </c>
-      <c r="N38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>302</v>
-      </c>
-      <c r="F39">
+        <v>300</v>
+      </c>
+      <c r="F39" t="str">
         <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39">
+        <v>148</v>
+      </c>
+      <c r="I39" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K39" t="s">
         <v>72</v>
@@ -6904,25 +6883,24 @@
       <c r="M39" t="s">
         <v>82</v>
       </c>
-      <c r="N39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:13">
       <c r="E40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40">
+        <v>301</v>
+      </c>
+      <c r="F40" t="str">
         <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40">
+        <v>164</v>
+      </c>
+      <c r="I40" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K40" t="s">
         <v>72</v>
@@ -6933,25 +6911,24 @@
       <c r="M40" t="s">
         <v>82</v>
       </c>
-      <c r="N40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:13">
       <c r="E41" t="s">
-        <v>304</v>
-      </c>
-      <c r="F41">
+        <v>302</v>
+      </c>
+      <c r="F41" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41">
+        <v>127</v>
+      </c>
+      <c r="I41" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K41" t="s">
         <v>72</v>
@@ -6962,25 +6939,24 @@
       <c r="M41" t="s">
         <v>82</v>
       </c>
-      <c r="N41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:13">
       <c r="E42" t="s">
-        <v>305</v>
-      </c>
-      <c r="F42">
+        <v>303</v>
+      </c>
+      <c r="F42" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42">
+        <v>121</v>
+      </c>
+      <c r="I42" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K42" t="s">
         <v>72</v>
@@ -6991,22 +6967,20 @@
       <c r="M42" t="s">
         <v>82</v>
       </c>
-      <c r="N42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:13">
       <c r="E43" t="s">
-        <v>306</v>
-      </c>
-      <c r="F43">
+        <v>304</v>
+      </c>
+      <c r="F43" t="str">
         <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s">
         <v>72</v>
@@ -7017,22 +6991,20 @@
       <c r="M43" t="s">
         <v>82</v>
       </c>
-      <c r="N43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:13">
       <c r="E44" t="s">
-        <v>307</v>
-      </c>
-      <c r="F44">
+        <v>305</v>
+      </c>
+      <c r="F44" t="str">
         <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s">
         <v>72</v>
@@ -7043,22 +7015,20 @@
       <c r="M44" t="s">
         <v>82</v>
       </c>
-      <c r="N44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:13">
       <c r="E45" t="s">
-        <v>308</v>
-      </c>
-      <c r="F45">
+        <v>306</v>
+      </c>
+      <c r="F45" t="str">
         <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-22</v>
       </c>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s">
         <v>72</v>
@@ -7069,11 +7039,8 @@
       <c r="M45" t="s">
         <v>82</v>
       </c>
-      <c r="N45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -7081,54 +7048,52 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="132" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" t="s">
+        <v>280</v>
+      </c>
+      <c r="I47" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="E48" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
+      </c>
+      <c r="G48" t="s">
         <v>309</v>
       </c>
-      <c r="D47" t="s" s="137">
-        <v>279</v>
-      </c>
-      <c r="E47" t="s" s="138">
-        <v>280</v>
-      </c>
-      <c r="F47" t="s" s="139">
-        <v>281</v>
-      </c>
-      <c r="G47" t="s" s="140">
-        <v>232</v>
-      </c>
-      <c r="H47" t="s">
-        <v>282</v>
-      </c>
-      <c r="I47" t="s">
-        <v>283</v>
-      </c>
-      <c r="J47" t="s">
-        <v>284</v>
-      </c>
-      <c r="K47" t="s">
-        <v>285</v>
-      </c>
-      <c r="L47" t="s">
-        <v>286</v>
-      </c>
-      <c r="M47" t="s">
-        <v>69</v>
-      </c>
-      <c r="N47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>310</v>
-      </c>
-      <c r="F48">
-        <f>发送配置!$E$12</f>
-      </c>
-      <c r="G48" t="s">
-        <v>311</v>
-      </c>
       <c r="H48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L48" t="s">
         <v>81</v>
@@ -7136,22 +7101,20 @@
       <c r="M48" t="s">
         <v>82</v>
       </c>
-      <c r="N48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>312</v>
-      </c>
-      <c r="F49">
+        <v>310</v>
+      </c>
+      <c r="F49" t="str">
         <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s">
         <v>81</v>
@@ -7159,49 +7122,47 @@
       <c r="M49" t="s">
         <v>82</v>
       </c>
-      <c r="N49" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="74">
+    <row r="1" spans="1:19">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" s="72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="78">
+    <row r="4" spans="1:19">
+      <c r="E4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" s="75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7209,15 +7170,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" t="s" s="141">
-        <v>314</v>
-      </c>
-      <c r="E7" t="s" s="142">
+        <v>311</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="143">
+      <c r="F7" s="137" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7227,31 +7188,31 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" t="s">
         <v>315</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>317</v>
-      </c>
-      <c r="L7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M7" t="s">
-        <v>319</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s" s="144">
+      <c r="O7" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="P7" t="s" s="145">
+      <c r="P7" s="139" t="s">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -7261,44 +7222,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
+    <row r="1" spans="1:17">
+      <c r="A1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="83">
+      <c r="C1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="84">
+      <c r="D1" s="79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
+    <row r="4" spans="1:17">
+      <c r="E4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="87">
+      <c r="G4" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7306,15 +7268,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" t="s" s="146">
-        <v>322</v>
-      </c>
-      <c r="E7" t="s" s="147">
+        <v>319</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="148">
+      <c r="F7" s="142" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7324,24 +7286,24 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" t="s" s="149">
+      <c r="N7" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="O7" t="s" s="150">
+      <c r="O7" s="144" t="s">
         <v>68</v>
       </c>
       <c r="P7" t="s">
@@ -7352,6 +7314,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -3,37 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
-    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
-    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
-    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
-    <sheet name="接收组" sheetId="6" r:id="rId6"/>
-    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
-    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
-    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
+    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
+    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
+    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
+    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
+    <sheet name="接收组" r:id="rId9" sheetId="6"/>
+    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
+    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
+    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="325">
   <si>
     <r>
       <rPr>
@@ -2098,6 +2098,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
@@ -2156,6 +2159,9 @@
   </si>
   <si>
     <t>消息模板</t>
+  </si>
+  <si>
+    <t>hmsg_message_template</t>
   </si>
   <si>
     <t>*template_id</t>
@@ -2826,16 +2832,13 @@
   <si>
     <t>secret</t>
   </si>
-  <si>
-    <t>hmsg_message_template</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="136">
+  <numFmts count="0"/>
+  <fonts count="137">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2954,712 +2957,599 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3800,7 +3690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3852,124 +3742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3985,6 +3757,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4331,56 +4222,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="147" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="148" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4417,7 +4308,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4431,7 +4322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4442,7 +4333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +4365,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -4491,13 +4382,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -4505,7 +4396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -4513,7 +4404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -4521,7 +4412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -4533,21 +4424,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="145"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="145"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -4569,41 +4460,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:T8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4613,13 +4502,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" t="s" s="88">
         <v>53</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" t="s" s="89">
         <v>54</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" t="s" s="90">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4655,17 +4544,20 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="86" t="s">
+      <c r="R7" t="s" s="91">
         <v>67</v>
       </c>
-      <c r="S7" s="87" t="s">
+      <c r="S7" t="s" s="92">
         <v>68</v>
       </c>
       <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="E8" t="s">
         <v>71</v>
       </c>
@@ -4711,8 +4603,11 @@
       <c r="T8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4720,25 +4615,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="D10" t="s" s="93">
         <v>85</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="E10" t="s" s="94">
         <v>86</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="F10" t="s" s="95">
         <v>87</v>
       </c>
+      <c r="G10" t="s" s="96">
+        <v>88</v>
+      </c>
       <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="92" t="s">
         <v>89</v>
+      </c>
+      <c r="I10" t="s" s="97">
+        <v>90</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
@@ -4748,47 +4643,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:R8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4796,15 +4688,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="D7" t="s" s="98">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" t="s" s="100">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4814,54 +4706,57 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="96" t="s">
+      <c r="O7" t="s" s="101">
         <v>67</v>
       </c>
-      <c r="P7" s="97" t="s">
+      <c r="P7" t="s" s="102">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
         <v>66</v>
       </c>
       <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8">
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
         <v>78</v>
@@ -4884,54 +4779,49 @@
       <c r="R8" t="s">
         <v>82</v>
       </c>
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:R23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.25" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4939,75 +4829,78 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="D7" t="s" s="103">
         <v>103</v>
       </c>
+      <c r="E7" t="s" s="104">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s" s="105">
+        <v>105</v>
+      </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="100" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="N7" t="s" s="106">
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="101" t="s">
-        <v>89</v>
+      <c r="P7" t="s" s="107">
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8">
       <c r="E8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O8" t="s">
         <v>80</v>
@@ -5016,33 +4909,36 @@
         <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" t="s">
         <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" t="s">
-        <v>118</v>
       </c>
       <c r="O9" t="s">
         <v>80</v>
@@ -5051,39 +4947,42 @@
         <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
         <v>80</v>
@@ -5092,36 +4991,39 @@
         <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
         <v>133</v>
       </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
         <v>80</v>
@@ -5130,33 +5032,36 @@
         <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
         <v>80</v>
@@ -5165,30 +5070,33 @@
         <v>81</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
         <v>80</v>
@@ -5197,39 +5105,42 @@
         <v>81</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
         <v>80</v>
@@ -5238,39 +5149,42 @@
         <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
         <v>80</v>
@@ -5279,30 +5193,33 @@
         <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
         <v>80</v>
@@ -5311,33 +5228,36 @@
         <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
         <v>80</v>
@@ -5346,33 +5266,36 @@
         <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
         <v>80</v>
@@ -5381,33 +5304,36 @@
         <v>81</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
         <v>80</v>
@@ -5416,30 +5342,33 @@
         <v>81</v>
       </c>
       <c r="Q19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
         <v>80</v>
@@ -5448,30 +5377,33 @@
         <v>81</v>
       </c>
       <c r="Q20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
         <v>80</v>
@@ -5480,30 +5412,33 @@
         <v>81</v>
       </c>
       <c r="Q21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O22" t="s">
         <v>80</v>
@@ -5512,33 +5447,36 @@
         <v>81</v>
       </c>
       <c r="Q22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O23" t="s">
         <v>80</v>
@@ -5547,13 +5485,16 @@
         <v>81</v>
       </c>
       <c r="Q23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -5561,52 +5502,54 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="D25" t="s" s="108">
         <v>200</v>
       </c>
-      <c r="G25" s="105" t="s">
+      <c r="E25" t="s" s="109">
         <v>201</v>
       </c>
+      <c r="F25" t="s" s="110">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s" s="111">
+        <v>203</v>
+      </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26">
       <c r="E26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" t="str">
+        <v>208</v>
+      </c>
+      <c r="F26">
         <f>消息模板!$E$8</f>
-        <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
         <v>81</v>
@@ -5617,17 +5560,19 @@
       <c r="L26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="M26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="str">
+        <v>208</v>
+      </c>
+      <c r="F27">
         <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
@@ -5638,17 +5583,19 @@
       <c r="L27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
-        <v>206</v>
-      </c>
-      <c r="F28" t="str">
+        <v>208</v>
+      </c>
+      <c r="F28">
         <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-18</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
@@ -5659,17 +5606,19 @@
       <c r="L28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" t="str">
+        <v>208</v>
+      </c>
+      <c r="F29">
         <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
         <v>81</v>
@@ -5680,17 +5629,19 @@
       <c r="L29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="M29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" t="str">
+        <v>208</v>
+      </c>
+      <c r="F30">
         <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J30" t="s">
         <v>81</v>
@@ -5701,17 +5652,19 @@
       <c r="L30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" t="str">
+        <v>208</v>
+      </c>
+      <c r="F31">
         <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J31" t="s">
         <v>81</v>
@@ -5722,17 +5675,19 @@
       <c r="L31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="M31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" t="str">
+        <v>208</v>
+      </c>
+      <c r="F32">
         <f>消息模板!$E$21</f>
-        <v>hmsg_message_template-21</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
@@ -5743,17 +5698,19 @@
       <c r="L32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="5:12">
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" t="str">
+        <v>208</v>
+      </c>
+      <c r="F33">
         <f>消息模板!$E$21</f>
-        <v>hmsg_message_template-21</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J33" t="s">
         <v>81</v>
@@ -5764,17 +5721,19 @@
       <c r="L33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="5:12">
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F34" t="str">
+        <v>208</v>
+      </c>
+      <c r="F34">
         <f>消息模板!$E$21</f>
-        <v>hmsg_message_template-21</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J34" t="s">
         <v>81</v>
@@ -5785,47 +5744,49 @@
       <c r="L34" t="s">
         <v>82</v>
       </c>
+      <c r="M34" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="48" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="52" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5833,57 +5794,57 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="D7" t="s" s="112">
         <v>215</v>
       </c>
+      <c r="E7" t="s" s="113">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s" s="114">
+        <v>217</v>
+      </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" t="s" s="115">
+        <v>221</v>
+      </c>
+      <c r="K7" t="s" s="116">
         <v>67</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="L7" t="s" s="117">
         <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
         <v>81</v>
@@ -5902,45 +5863,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="55" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="60">
         <v>44</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" t="s" s="61">
         <v>45</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" t="s" s="63">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="59" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="64">
         <v>47</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" t="s" s="65">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" t="s" s="66">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5948,81 +5908,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="D7" t="s" s="118">
         <v>230</v>
       </c>
+      <c r="E7" t="s" s="119">
+        <v>231</v>
+      </c>
+      <c r="F7" t="s" s="120">
+        <v>232</v>
+      </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="115" t="s">
-        <v>89</v>
+      <c r="L7" t="s" s="121">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="62" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="67">
         <v>44</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" t="s" s="68">
         <v>45</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" t="s" s="69">
         <v>9</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" t="s" s="70">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="66" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="71">
         <v>47</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" t="s" s="72">
         <v>48</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" t="s" s="73">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6030,39 +5984,42 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="D7" t="s" s="122">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s" s="123">
+        <v>239</v>
+      </c>
+      <c r="F7" t="s" s="124">
         <v>67</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" t="s" s="125">
         <v>68</v>
       </c>
-      <c r="H7" s="120" t="s">
-        <v>238</v>
+      <c r="H7" t="s" s="126">
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
       <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8">
       <c r="E8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -6071,13 +6028,13 @@
         <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -6085,10 +6042,13 @@
       <c r="L8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -6097,13 +6057,13 @@
         <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
         <v>80</v>
@@ -6111,10 +6071,13 @@
       <c r="L9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
@@ -6123,13 +6086,13 @@
         <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
         <v>80</v>
@@ -6137,10 +6100,13 @@
       <c r="L10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
@@ -6149,13 +6115,13 @@
         <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
         <v>80</v>
@@ -6163,10 +6129,13 @@
       <c r="L11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -6175,13 +6144,13 @@
         <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
@@ -6189,10 +6158,13 @@
       <c r="L12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -6201,13 +6173,13 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K13" t="s">
         <v>80</v>
@@ -6215,10 +6187,13 @@
       <c r="L13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
         <v>81</v>
@@ -6227,13 +6202,13 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -6241,10 +6216,13 @@
       <c r="L14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -6253,13 +6231,13 @@
         <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -6267,10 +6245,13 @@
       <c r="L15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -6279,13 +6260,13 @@
         <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -6293,10 +6274,13 @@
       <c r="L16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -6305,13 +6289,13 @@
         <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6319,10 +6303,13 @@
       <c r="L17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
@@ -6331,13 +6318,13 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K18" t="s">
         <v>80</v>
@@ -6345,10 +6332,13 @@
       <c r="L18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -6357,13 +6347,13 @@
         <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K19" t="s">
         <v>80</v>
@@ -6371,10 +6361,13 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F20" t="s">
         <v>81</v>
@@ -6383,13 +6376,13 @@
         <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K20" t="s">
         <v>80</v>
@@ -6397,10 +6390,13 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
@@ -6409,13 +6405,13 @@
         <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K21" t="s">
         <v>80</v>
@@ -6423,10 +6419,13 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
@@ -6435,13 +6434,13 @@
         <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K22" t="s">
         <v>80</v>
@@ -6449,8 +6448,11 @@
       <c r="L22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -6458,56 +6460,57 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="D24" t="s" s="127">
         <v>279</v>
       </c>
-      <c r="G24" s="124" t="s">
-        <v>230</v>
+      <c r="E24" t="s" s="128">
+        <v>280</v>
+      </c>
+      <c r="F24" t="s" s="129">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s" s="130">
+        <v>232</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
-      </c>
-      <c r="I24" s="125" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="I24" t="s" s="131">
+        <v>283</v>
       </c>
       <c r="J24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25">
       <c r="E25" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" t="str">
+        <v>287</v>
+      </c>
+      <c r="F25">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" t="str">
+        <v>176</v>
+      </c>
+      <c r="I25">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K25" t="s">
         <v>72</v>
@@ -6518,24 +6521,25 @@
       <c r="M25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" t="str">
+        <v>289</v>
+      </c>
+      <c r="F26">
         <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" t="str">
+        <v>155</v>
+      </c>
+      <c r="I26">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K26" t="s">
         <v>72</v>
@@ -6546,24 +6550,25 @@
       <c r="M26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27">
+        <f>发送配置!$E$11</f>
+      </c>
+      <c r="G27" t="s">
         <v>288</v>
       </c>
-      <c r="F27" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>286</v>
-      </c>
       <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" t="str">
+        <v>136</v>
+      </c>
+      <c r="I27">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K27" t="s">
         <v>72</v>
@@ -6574,24 +6579,25 @@
       <c r="M27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
-        <v>289</v>
-      </c>
-      <c r="F28" t="str">
+        <v>291</v>
+      </c>
+      <c r="F28">
         <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
       </c>
       <c r="G28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" t="str">
+        <v>162</v>
+      </c>
+      <c r="I28">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K28" t="s">
         <v>72</v>
@@ -6602,24 +6608,25 @@
       <c r="M28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" t="str">
+        <v>292</v>
+      </c>
+      <c r="F29">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" t="str">
+        <v>129</v>
+      </c>
+      <c r="I29">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K29" t="s">
         <v>72</v>
@@ -6630,24 +6637,25 @@
       <c r="M29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" t="str">
+        <v>293</v>
+      </c>
+      <c r="F30">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" t="str">
+        <v>123</v>
+      </c>
+      <c r="I30">
         <f>邮箱服务配置!$E$8</f>
-        <v>hmsg_email_server-8</v>
       </c>
       <c r="K30" t="s">
         <v>72</v>
@@ -6658,20 +6666,22 @@
       <c r="M30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" t="str">
+        <v>294</v>
+      </c>
+      <c r="F31">
         <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-19</v>
       </c>
       <c r="G31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
         <v>72</v>
@@ -6682,20 +6692,22 @@
       <c r="M31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" t="str">
+        <v>295</v>
+      </c>
+      <c r="F32">
         <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-21</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K32" t="s">
         <v>72</v>
@@ -6706,20 +6718,22 @@
       <c r="M32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
-        <v>294</v>
-      </c>
-      <c r="F33" t="str">
+        <v>296</v>
+      </c>
+      <c r="F33">
         <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-22</v>
       </c>
       <c r="G33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
         <v>72</v>
@@ -6730,8 +6744,11 @@
       <c r="M33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -6739,56 +6756,57 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" t="s" s="132">
         <v>279</v>
       </c>
-      <c r="G35" s="129" t="s">
-        <v>230</v>
+      <c r="E35" t="s" s="133">
+        <v>280</v>
+      </c>
+      <c r="F35" t="s" s="134">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s" s="135">
+        <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
-      </c>
-      <c r="I35" s="130" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="I35" t="s" s="136">
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36">
       <c r="E36" t="s">
-        <v>296</v>
-      </c>
-      <c r="F36" t="str">
+        <v>298</v>
+      </c>
+      <c r="F36">
         <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
       </c>
       <c r="G36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" t="str">
+        <v>116</v>
+      </c>
+      <c r="I36">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K36" t="s">
         <v>72</v>
@@ -6799,24 +6817,25 @@
       <c r="M36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" t="str">
+        <v>300</v>
+      </c>
+      <c r="F37">
         <f>发送配置!$E$18</f>
-        <v>hmsg_template_server-18</v>
       </c>
       <c r="G37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I37" t="str">
+        <v>176</v>
+      </c>
+      <c r="I37">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K37" t="s">
         <v>72</v>
@@ -6827,24 +6846,25 @@
       <c r="M37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38">
+        <f>发送配置!$E$14</f>
+      </c>
+      <c r="G38" t="s">
         <v>299</v>
       </c>
-      <c r="F38" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>297</v>
-      </c>
       <c r="H38" t="s">
-        <v>153</v>
-      </c>
-      <c r="I38" t="str">
+        <v>155</v>
+      </c>
+      <c r="I38">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K38" t="s">
         <v>72</v>
@@ -6855,24 +6875,25 @@
       <c r="M38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" t="str">
+        <v>302</v>
+      </c>
+      <c r="F39">
         <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
       </c>
       <c r="G39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" t="str">
+        <v>150</v>
+      </c>
+      <c r="I39">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K39" t="s">
         <v>72</v>
@@ -6883,24 +6904,25 @@
       <c r="M39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="E40" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" t="str">
+        <v>303</v>
+      </c>
+      <c r="F40">
         <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H40" t="s">
-        <v>164</v>
-      </c>
-      <c r="I40" t="str">
+        <v>166</v>
+      </c>
+      <c r="I40">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K40" t="s">
         <v>72</v>
@@ -6911,24 +6933,25 @@
       <c r="M40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="E41" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" t="str">
+        <v>304</v>
+      </c>
+      <c r="F41">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" t="str">
+        <v>129</v>
+      </c>
+      <c r="I41">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K41" t="s">
         <v>72</v>
@@ -6939,24 +6962,25 @@
       <c r="M41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="E42" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" t="str">
+        <v>305</v>
+      </c>
+      <c r="F42">
         <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" t="str">
+        <v>123</v>
+      </c>
+      <c r="I42">
         <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K42" t="s">
         <v>72</v>
@@ -6967,20 +6991,22 @@
       <c r="M42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="E43" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" t="str">
+        <v>306</v>
+      </c>
+      <c r="F43">
         <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
       </c>
       <c r="G43" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K43" t="s">
         <v>72</v>
@@ -6991,20 +7017,22 @@
       <c r="M43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="E44" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" t="str">
+        <v>307</v>
+      </c>
+      <c r="F44">
         <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-19</v>
       </c>
       <c r="G44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s">
         <v>72</v>
@@ -7015,20 +7043,22 @@
       <c r="M44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="E45" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" t="str">
+        <v>308</v>
+      </c>
+      <c r="F45">
         <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-22</v>
       </c>
       <c r="G45" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K45" t="s">
         <v>72</v>
@@ -7039,8 +7069,11 @@
       <c r="M45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -7048,52 +7081,54 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="133" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s" s="137">
         <v>279</v>
       </c>
-      <c r="G47" s="134" t="s">
-        <v>230</v>
+      <c r="E47" t="s" s="138">
+        <v>280</v>
+      </c>
+      <c r="F47" t="s" s="139">
+        <v>281</v>
+      </c>
+      <c r="G47" t="s" s="140">
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K47" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48">
       <c r="E48" t="s">
-        <v>308</v>
-      </c>
-      <c r="F48" t="str">
+        <v>310</v>
+      </c>
+      <c r="F48">
         <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s">
         <v>81</v>
@@ -7101,20 +7136,22 @@
       <c r="M48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="5:13">
+      <c r="N48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="E49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" t="str">
+        <v>312</v>
+      </c>
+      <c r="F49">
         <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-20</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
         <v>81</v>
@@ -7122,47 +7159,49 @@
       <c r="M49" t="s">
         <v>82</v>
       </c>
+      <c r="N49" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="69" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="74">
         <v>44</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" t="s" s="75">
         <v>45</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" t="s" s="76">
         <v>9</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" t="s" s="77">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="E4" s="73" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="78">
         <v>47</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" t="s" s="79">
         <v>48</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" t="s" s="80">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7170,15 +7209,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s" s="141">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s" s="142">
         <v>54</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" t="s" s="143">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7188,31 +7227,31 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="138" t="s">
+      <c r="O7" t="s" s="144">
         <v>67</v>
       </c>
-      <c r="P7" s="139" t="s">
+      <c r="P7" t="s" s="145">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -7222,45 +7261,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="76" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="81">
         <v>44</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" t="s" s="82">
         <v>45</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" t="s" s="84">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="80" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="85">
         <v>47</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" t="s" s="86">
         <v>48</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" t="s" s="87">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7268,15 +7306,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" s="140" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7" s="141" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s" s="146">
+        <v>322</v>
+      </c>
+      <c r="E7" t="s" s="147">
         <v>54</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" t="s" s="148">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7286,24 +7324,24 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="143" t="s">
+      <c r="N7" t="s" s="149">
         <v>67</v>
       </c>
-      <c r="O7" s="144" t="s">
+      <c r="O7" t="s" s="150">
         <v>68</v>
       </c>
       <c r="P7" t="s">
@@ -7314,8 +7352,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="24860" windowHeight="13280" tabRatio="597" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" r:id="rId5" sheetId="2"/>
-    <sheet name="短信服务配置" r:id="rId6" sheetId="3"/>
-    <sheet name="消息模板" r:id="rId7" sheetId="4"/>
-    <sheet name="接收配置" r:id="rId8" sheetId="5"/>
-    <sheet name="接收组" r:id="rId9" sheetId="6"/>
-    <sheet name="发送配置" r:id="rId10" sheetId="7"/>
-    <sheet name="微信企业号配置" r:id="rId11" sheetId="8"/>
-    <sheet name="微信公众号配置" r:id="rId12" sheetId="9"/>
+    <sheet name="邮箱服务配置" sheetId="2" r:id="rId2"/>
+    <sheet name="短信服务配置" sheetId="3" r:id="rId3"/>
+    <sheet name="消息模板" sheetId="4" r:id="rId4"/>
+    <sheet name="接收配置" sheetId="5" r:id="rId5"/>
+    <sheet name="接收组" sheetId="6" r:id="rId6"/>
+    <sheet name="发送配置" sheetId="7" r:id="rId7"/>
+    <sheet name="微信企业号配置" sheetId="8" r:id="rId8"/>
+    <sheet name="微信公众号配置" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -59,7 +53,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -72,7 +65,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -91,7 +83,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -110,7 +101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,7 +119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -161,7 +150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -180,7 +168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -199,7 +186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -221,7 +207,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -242,7 +227,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -263,7 +247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -284,7 +267,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -305,7 +287,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -317,7 +298,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -336,7 +316,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -348,7 +327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -367,7 +345,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -386,7 +363,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -405,7 +381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -424,7 +399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -472,7 +446,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -491,7 +464,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -510,7 +482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -529,7 +500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -541,7 +511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -560,7 +529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -579,7 +547,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -599,7 +566,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -618,7 +584,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -638,7 +603,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -657,7 +621,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -669,7 +632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -688,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -707,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -731,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -750,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -769,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -788,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -807,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -819,7 +774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -838,7 +792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -849,7 +802,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -870,7 +822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -881,7 +832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -900,7 +850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -919,7 +868,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -943,7 +891,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -962,7 +909,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -982,7 +928,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1002,7 +947,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1022,7 +966,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1043,7 +986,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1063,7 +1005,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1098,7 +1039,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1119,7 +1059,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1131,7 +1070,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1150,7 +1088,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1171,7 +1108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1190,7 +1126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1203,7 +1138,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1222,7 +1156,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1241,7 +1174,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1260,7 +1192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1275,7 +1206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1294,7 +1224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1313,7 +1242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1332,7 +1260,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1351,7 +1278,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1367,7 +1293,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1377,7 +1302,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1396,7 +1320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1412,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1422,7 +1344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1441,7 +1362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1456,7 +1376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1475,7 +1394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1494,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1514,7 +1431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1538,7 +1454,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1557,7 +1472,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1576,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1596,7 +1509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1617,7 +1529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1628,7 +1539,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1638,7 +1548,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1650,7 +1559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1669,7 +1577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1688,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1707,7 +1613,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1727,7 +1632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1746,7 +1650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1765,7 +1668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1785,7 +1687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1804,7 +1705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1823,7 +1723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1842,7 +1741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1862,7 +1760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1874,7 +1771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1885,7 +1781,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1895,7 +1790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1907,7 +1801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1926,7 +1819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1938,7 +1830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1957,7 +1848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1977,7 +1867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2065,97 +1954,97 @@
     <t>last_updated_by</t>
   </si>
   <si>
-    <t>hmsg_email_server-8</t>
+    <t>hmsg_email_server-9</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+  </si>
+  <si>
+    <t>smtp.164.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
+    <t>#tenant_id</t>
+  </si>
+  <si>
+    <t>短信服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server</t>
+  </si>
+  <si>
+    <t>server_type_code</t>
+  </si>
+  <si>
+    <t>end_point</t>
+  </si>
+  <si>
+    <t>access_key</t>
+  </si>
+  <si>
+    <t>access_key_secret</t>
+  </si>
+  <si>
+    <t>sign_name</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server-8</t>
   </si>
   <si>
     <t>HZERO</t>
   </si>
   <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
+    <t>平台默认配置</t>
+  </si>
+  <si>
+    <t>BAIDU</t>
+  </si>
+  <si>
+    <t>http://sms.bj.baidubce.com</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>now</t>
   </si>
   <si>
     <t>-1</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
-  </si>
-  <si>
-    <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>短信服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_sms_server</t>
-  </si>
-  <si>
-    <t>server_type_code</t>
-  </si>
-  <si>
-    <t>end_point</t>
-  </si>
-  <si>
-    <t>access_key</t>
-  </si>
-  <si>
-    <t>access_key_secret</t>
-  </si>
-  <si>
-    <t>sign_name</t>
-  </si>
-  <si>
-    <t>hmsg_sms_server-8</t>
-  </si>
-  <si>
-    <t>平台默认配置</t>
-  </si>
-  <si>
-    <t>BAIDU</t>
-  </si>
-  <si>
-    <t>http://sms.bj.baidubce.com</t>
   </si>
   <si>
     <t>消息模板</t>
@@ -2836,9 +2725,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="137">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2847,9 +2741,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2871,44 +2801,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2929,630 +2976,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3583,8 +3045,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3596,12 +3244,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3626,6 +3290,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3634,26 +3311,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3668,15 +3325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3685,203 +3333,377 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3954,9 +3776,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4214,285 +4033,296 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" ht="17" spans="3:7">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" ht="17" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="51" spans="3:6">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51" spans="3:5">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="68" spans="3:5">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" ht="17" spans="3:5">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" ht="34" spans="3:5">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+    <row r="19" ht="17" spans="3:5">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="17" spans="3:4">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="17" spans="3:4">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="17" spans="3:4">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="17" spans="3:4">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="51" spans="3:3">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="5" max="5" width="25.4583333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.8611111111111" customWidth="1"/>
+    <col min="7" max="7" width="16.7847222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.0694444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4502,13 +4332,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="88">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="89">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="90">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4544,10 +4374,10 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="91">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S7" t="s" s="92">
+      <c r="S7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="T7" t="s">
@@ -4557,57 +4387,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:18">
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
         <v>76</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8" t="s">
         <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
         <v>78</v>
       </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="s">
-        <v>80</v>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4615,25 +4437,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s" s="93">
+      <c r="H10" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s" s="94">
+      <c r="I10" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F10" t="s" s="95">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s" s="96">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s" s="97">
-        <v>90</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
@@ -4643,44 +4465,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4688,15 +4514,15 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s" s="98">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s" s="99">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="100">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4706,27 +4532,27 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
         <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="s">
-        <v>97</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s" s="101">
+      <c r="O7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P7" t="s" s="102">
+      <c r="P7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
@@ -4739,89 +4565,93 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="H8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="S8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4831,13 +4661,13 @@
       <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s" s="103">
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s" s="104">
+      <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s" s="105">
+      <c r="F7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G7" t="s">
@@ -4861,14 +4691,14 @@
       <c r="M7" t="s">
         <v>112</v>
       </c>
-      <c r="N7" t="s" s="106">
+      <c r="N7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" t="s" s="107">
-        <v>90</v>
+      <c r="P7" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
         <v>114</v>
@@ -4880,7 +4710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
         <v>115</v>
       </c>
@@ -4903,22 +4733,22 @@
         <v>120</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
         <v>121</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="5:19">
       <c r="E9" t="s">
         <v>122</v>
       </c>
@@ -4941,22 +4771,22 @@
         <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
         <v>121</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="5:19">
       <c r="E10" t="s">
         <v>128</v>
       </c>
@@ -4985,22 +4815,22 @@
         <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
         <v>121</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="5:19">
       <c r="E11" t="s">
         <v>135</v>
       </c>
@@ -5026,22 +4856,22 @@
         <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
         <v>121</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="5:19">
       <c r="E12" t="s">
         <v>139</v>
       </c>
@@ -5064,22 +4894,22 @@
         <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
         <v>121</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="5:19">
       <c r="E13" t="s">
         <v>145</v>
       </c>
@@ -5099,22 +4929,22 @@
         <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
         <v>121</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="5:19">
       <c r="E14" t="s">
         <v>149</v>
       </c>
@@ -5143,22 +4973,22 @@
         <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
         <v>121</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="5:19">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -5187,22 +5017,22 @@
         <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
         <v>121</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="5:19">
       <c r="E16" t="s">
         <v>161</v>
       </c>
@@ -5222,22 +5052,22 @@
         <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
         <v>121</v>
       </c>
       <c r="R16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:19">
       <c r="E17" t="s">
         <v>165</v>
       </c>
@@ -5260,22 +5090,22 @@
         <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
         <v>121</v>
       </c>
       <c r="R17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19">
       <c r="E18" t="s">
         <v>169</v>
       </c>
@@ -5298,22 +5128,22 @@
         <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
         <v>121</v>
       </c>
       <c r="R18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19">
       <c r="E19" t="s">
         <v>175</v>
       </c>
@@ -5336,22 +5166,22 @@
         <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
         <v>121</v>
       </c>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19">
       <c r="E20" t="s">
         <v>180</v>
       </c>
@@ -5371,22 +5201,22 @@
         <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s">
         <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="5:19">
       <c r="E21" t="s">
         <v>184</v>
       </c>
@@ -5406,22 +5236,22 @@
         <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="s">
         <v>121</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="5:19">
       <c r="E22" t="s">
         <v>188</v>
       </c>
@@ -5441,22 +5271,22 @@
         <v>120</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="s">
         <v>121</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19">
       <c r="E23" t="s">
         <v>193</v>
       </c>
@@ -5479,22 +5309,22 @@
         <v>120</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
         <v>121</v>
       </c>
       <c r="R23" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -5504,16 +5334,16 @@
       <c r="C25" t="s">
         <v>199</v>
       </c>
-      <c r="D25" t="s" s="108">
+      <c r="D25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E25" t="s" s="109">
+      <c r="E25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F25" t="s" s="110">
+      <c r="F25" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G25" t="s" s="111">
+      <c r="G25" s="3" t="s">
         <v>203</v>
       </c>
       <c r="H25" t="s">
@@ -5535,12 +5365,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:13">
       <c r="E26" t="s">
         <v>208</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>消息模板!$E$8</f>
+        <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
         <v>209</v>
@@ -5552,241 +5383,253 @@
         <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
       <c r="E27" t="s">
         <v>208</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G27" t="s">
         <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
       <c r="E28" t="s">
         <v>208</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-18</v>
       </c>
       <c r="G28" t="s">
         <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
       <c r="E29" t="s">
         <v>208</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G29" t="s">
         <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
       <c r="E30" t="s">
         <v>208</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G30" t="s">
         <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
       <c r="E31" t="s">
         <v>208</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G31" t="s">
         <v>209</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
       <c r="E32" t="s">
         <v>208</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G32" t="s">
         <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
       <c r="E33" t="s">
         <v>208</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G33" t="s">
         <v>212</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
       <c r="E34" t="s">
         <v>208</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G34" t="s">
         <v>213</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5796,13 +5639,13 @@
       <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s" s="112">
+      <c r="D7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E7" t="s" s="113">
+      <c r="E7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F7" t="s" s="114">
+      <c r="F7" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G7" t="s">
@@ -5814,13 +5657,13 @@
       <c r="I7" t="s">
         <v>220</v>
       </c>
-      <c r="J7" t="s" s="115">
+      <c r="J7" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K7" t="s" s="116">
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s" s="117">
+      <c r="L7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="M7" t="s">
@@ -5830,7 +5673,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
         <v>224</v>
       </c>
@@ -5847,60 +5690,64 @@
         <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5910,13 +5757,13 @@
       <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="D7" t="s" s="118">
+      <c r="D7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E7" t="s" s="119">
+      <c r="E7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F7" t="s" s="120">
+      <c r="F7" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G7" t="s">
@@ -5934,49 +5781,53 @@
       <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s" s="121">
-        <v>90</v>
+      <c r="L7" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="67">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="68">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="69">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="70">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="71">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="72">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="73">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5986,19 +5837,19 @@
       <c r="C7" t="s">
         <v>237</v>
       </c>
-      <c r="D7" t="s" s="122">
+      <c r="D7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E7" t="s" s="123">
+      <c r="E7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F7" t="s" s="124">
+      <c r="F7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s" s="125">
+      <c r="G7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H7" t="s" s="126">
+      <c r="H7" s="3" t="s">
         <v>240</v>
       </c>
       <c r="I7" t="s">
@@ -6017,15 +5868,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
         <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>116</v>
@@ -6037,24 +5888,24 @@
         <v>244</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
         <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>123</v>
@@ -6066,24 +5917,24 @@
         <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
         <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>129</v>
@@ -6095,24 +5946,24 @@
         <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>136</v>
@@ -6124,24 +5975,24 @@
         <v>251</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
         <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
         <v>146</v>
@@ -6153,24 +6004,24 @@
         <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
         <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
         <v>150</v>
@@ -6182,24 +6033,24 @@
         <v>256</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14" t="s">
         <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
         <v>155</v>
@@ -6211,24 +6062,24 @@
         <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
       <c r="E15" t="s">
         <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
         <v>162</v>
@@ -6240,24 +6091,24 @@
         <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
         <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
         <v>166</v>
@@ -6269,24 +6120,24 @@
         <v>264</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
       <c r="E17" t="s">
         <v>265</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
         <v>170</v>
@@ -6298,24 +6149,24 @@
         <v>266</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
       <c r="E18" t="s">
         <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
         <v>176</v>
@@ -6327,24 +6178,24 @@
         <v>268</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
       <c r="E19" t="s">
         <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
         <v>181</v>
@@ -6356,24 +6207,24 @@
         <v>270</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
       <c r="E20" t="s">
         <v>271</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
         <v>189</v>
@@ -6385,24 +6236,24 @@
         <v>272</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
       <c r="E21" t="s">
         <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>194</v>
@@ -6414,24 +6265,24 @@
         <v>274</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
       <c r="E22" t="s">
         <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
         <v>185</v>
@@ -6443,16 +6294,16 @@
         <v>277</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -6462,22 +6313,22 @@
       <c r="C24" t="s">
         <v>278</v>
       </c>
-      <c r="D24" t="s" s="127">
+      <c r="D24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E24" t="s" s="128">
+      <c r="E24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F24" t="s" s="129">
+      <c r="F24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G24" t="s" s="130">
+      <c r="G24" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H24" t="s">
         <v>282</v>
       </c>
-      <c r="I24" t="s" s="131">
+      <c r="I24" s="4" t="s">
         <v>283</v>
       </c>
       <c r="J24" t="s">
@@ -6496,12 +6347,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:14">
       <c r="E25" t="s">
         <v>287</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
       </c>
       <c r="G25" t="s">
         <v>288</v>
@@ -6509,28 +6361,30 @@
       <c r="H25" t="s">
         <v>176</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
       <c r="E26" t="s">
         <v>289</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G26" t="s">
         <v>288</v>
@@ -6538,28 +6392,30 @@
       <c r="H26" t="s">
         <v>155</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
       <c r="E27" t="s">
         <v>290</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
         <v>288</v>
@@ -6567,28 +6423,30 @@
       <c r="H27" t="s">
         <v>136</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14">
       <c r="E28" t="s">
         <v>291</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G28" t="s">
         <v>288</v>
@@ -6596,28 +6454,30 @@
       <c r="H28" t="s">
         <v>162</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14">
       <c r="E29" t="s">
         <v>292</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G29" t="s">
         <v>288</v>
@@ -6625,28 +6485,30 @@
       <c r="H29" t="s">
         <v>129</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14">
       <c r="E30" t="s">
         <v>293</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G30" t="s">
         <v>288</v>
@@ -6654,28 +6516,30 @@
       <c r="H30" t="s">
         <v>123</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="str">
         <f>邮箱服务配置!$E$8</f>
+        <v>hmsg_email_server-9</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14">
       <c r="E31" t="s">
         <v>294</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G31" t="s">
         <v>288</v>
@@ -6684,24 +6548,25 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14">
       <c r="E32" t="s">
         <v>295</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-21</v>
       </c>
       <c r="G32" t="s">
         <v>288</v>
@@ -6710,24 +6575,25 @@
         <v>194</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14">
       <c r="E33" t="s">
         <v>296</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-22</v>
       </c>
       <c r="G33" t="s">
         <v>288</v>
@@ -6736,19 +6602,19 @@
         <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -6758,22 +6624,22 @@
       <c r="C35" t="s">
         <v>297</v>
       </c>
-      <c r="D35" t="s" s="132">
+      <c r="D35" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E35" t="s" s="133">
+      <c r="E35" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F35" t="s" s="134">
+      <c r="F35" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G35" t="s" s="135">
+      <c r="G35" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H35" t="s">
         <v>282</v>
       </c>
-      <c r="I35" t="s" s="136">
+      <c r="I35" s="4" t="s">
         <v>283</v>
       </c>
       <c r="J35" t="s">
@@ -6792,12 +6658,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:14">
       <c r="E36" t="s">
         <v>298</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G36" t="s">
         <v>299</v>
@@ -6805,28 +6672,30 @@
       <c r="H36" t="s">
         <v>116</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14">
       <c r="E37" t="s">
         <v>300</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>发送配置!$E$18</f>
+        <v>hmsg_template_server-18</v>
       </c>
       <c r="G37" t="s">
         <v>299</v>
@@ -6834,28 +6703,30 @@
       <c r="H37" t="s">
         <v>176</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14">
       <c r="E38" t="s">
         <v>301</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G38" t="s">
         <v>299</v>
@@ -6863,28 +6734,30 @@
       <c r="H38" t="s">
         <v>155</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14">
       <c r="E39" t="s">
         <v>302</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G39" t="s">
         <v>299</v>
@@ -6892,28 +6765,30 @@
       <c r="H39" t="s">
         <v>150</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14">
       <c r="E40" t="s">
         <v>303</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G40" t="s">
         <v>299</v>
@@ -6921,28 +6796,30 @@
       <c r="H40" t="s">
         <v>166</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14">
       <c r="E41" t="s">
         <v>304</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G41" t="s">
         <v>299</v>
@@ -6950,28 +6827,30 @@
       <c r="H41" t="s">
         <v>129</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
         <v>299</v>
@@ -6979,28 +6858,30 @@
       <c r="H42" t="s">
         <v>123</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="str">
         <f>短信服务配置!$E$8</f>
+        <v>hmsg_sms_server-8</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G43" t="s">
         <v>299</v>
@@ -7009,24 +6890,25 @@
         <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14">
       <c r="E44" t="s">
         <v>307</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G44" t="s">
         <v>299</v>
@@ -7035,24 +6917,25 @@
         <v>181</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14">
       <c r="E45" t="s">
         <v>308</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-22</v>
       </c>
       <c r="G45" t="s">
         <v>299</v>
@@ -7061,19 +6944,19 @@
         <v>185</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -7083,16 +6966,16 @@
       <c r="C47" t="s">
         <v>309</v>
       </c>
-      <c r="D47" t="s" s="137">
+      <c r="D47" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E47" t="s" s="138">
+      <c r="E47" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F47" t="s" s="139">
+      <c r="F47" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G47" t="s" s="140">
+      <c r="G47" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H47" t="s">
@@ -7117,12 +7000,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:14">
       <c r="E48" t="s">
         <v>310</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
         <v>311</v>
@@ -7131,21 +7015,22 @@
         <v>146</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14">
       <c r="E49" t="s">
         <v>312</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G49" t="s">
         <v>311</v>
@@ -7154,54 +7039,58 @@
         <v>189</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="74">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="78">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7211,13 +7100,13 @@
       <c r="C7" t="s">
         <v>313</v>
       </c>
-      <c r="D7" t="s" s="141">
+      <c r="D7" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E7" t="s" s="142">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="143">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7244,10 +7133,10 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s" s="144">
+      <c r="O7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P7" t="s" s="145">
+      <c r="P7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q7" t="s">
@@ -7261,44 +7150,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="83">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="84">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="87">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7308,13 +7201,13 @@
       <c r="C7" t="s">
         <v>321</v>
       </c>
-      <c r="D7" t="s" s="146">
+      <c r="D7" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E7" t="s" s="147">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="148">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -7338,10 +7231,10 @@
       <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" t="s" s="149">
+      <c r="N7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O7" t="s" s="150">
+      <c r="O7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P7" t="s">
@@ -7352,6 +7245,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="13280" tabRatio="597" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326">
   <si>
     <r>
       <rPr>
@@ -2026,10 +2026,10 @@
     <t>hmsg_sms_server-8</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认配置</t>
+    <t>CHOERODON-SMS</t>
+  </si>
+  <si>
+    <t>平台默认短信设置</t>
   </si>
   <si>
     <t>BAIDU</t>
@@ -2041,70 +2041,70 @@
     <t>1</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>消息模板</t>
+  </si>
+  <si>
+    <t>hmsg_message_template</t>
+  </si>
+  <si>
+    <t>*template_id</t>
+  </si>
+  <si>
+    <t>#template_code</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>template_title</t>
+  </si>
+  <si>
+    <t>template_content</t>
+  </si>
+  <si>
+    <t>message_category_code</t>
+  </si>
+  <si>
+    <t>message_subcategory_code</t>
+  </si>
+  <si>
+    <t>external_code</t>
+  </si>
+  <si>
+    <t>sql_value</t>
+  </si>
+  <si>
+    <t>#lang</t>
+  </si>
+  <si>
+    <t>editor_type</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-8</t>
+  </si>
+  <si>
+    <t>HIAM.CAPTCHA</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>smsTpl:8d3cb694-fb20-46b7-80f3-0bbee144c467</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>now</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>消息模板</t>
-  </si>
-  <si>
-    <t>hmsg_message_template</t>
-  </si>
-  <si>
-    <t>*template_id</t>
-  </si>
-  <si>
-    <t>#template_code</t>
-  </si>
-  <si>
-    <t>template_name</t>
-  </si>
-  <si>
-    <t>template_title</t>
-  </si>
-  <si>
-    <t>template_content</t>
-  </si>
-  <si>
-    <t>message_category_code</t>
-  </si>
-  <si>
-    <t>message_subcategory_code</t>
-  </si>
-  <si>
-    <t>external_code</t>
-  </si>
-  <si>
-    <t>sql_value</t>
-  </si>
-  <si>
-    <t>#lang</t>
-  </si>
-  <si>
-    <t>editor_type</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-8</t>
-  </si>
-  <si>
-    <t>HIAM.CAPTCHA</t>
-  </si>
-  <si>
-    <t>验证码</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您的验证码为${captcha}，请您妥善保管，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>smsTpl:8d3cb694-fb20-46b7-80f3-0bbee144c467</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
   <si>
     <t>hmsg_message_template-9</t>
@@ -2614,6 +2614,9 @@
     <t>EMAIL</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-26</t>
   </si>
   <si>
@@ -2727,12 +2730,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2761,6 +2764,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2802,22 +2812,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2825,22 +2827,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,7 +2841,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2869,18 +2856,63 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2894,7 +2926,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,29 +2940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2943,18 +2954,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2979,13 +2983,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2998,12 +2995,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3047,6 +3038,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3059,25 +3056,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3089,19 +3092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,19 +3140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,7 +3158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,13 +3188,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,55 +3212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3334,10 +3325,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3358,6 +3384,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3369,35 +3404,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3416,176 +3422,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3594,24 +3588,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3619,40 +3613,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
@@ -3702,7 +3696,8 @@
     <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4047,10 +4042,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -4064,79 +4059,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4144,56 +4139,56 @@
       </c>
     </row>
     <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4203,64 +4198,64 @@
       </c>
     </row>
     <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4286,7 +4281,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4394,7 +4389,7 @@
       <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H8" t="s">
@@ -4421,7 +4416,6 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8"/>
       <c r="Q8" t="s">
         <v>79</v>
       </c>
@@ -4476,10 +4470,14 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col min="5" max="5" width="19.4375" customWidth="1"/>
+    <col min="8" max="8" width="16.5486111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4565,51 +4563,52 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="5:19">
-      <c r="E8" t="s">
+    <row r="8" s="5" customFormat="1" spans="5:18">
+      <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="O8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S8" t="s">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" display="http://sms.bj.baidubce.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -4659,40 +4658,40 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>106</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>107</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>108</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
@@ -4701,7 +4700,7 @@
         <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -4712,25 +4711,25 @@
     </row>
     <row r="8" spans="5:19">
       <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>118</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
       </c>
       <c r="O8" t="s">
         <v>99</v>
@@ -4739,13 +4738,13 @@
         <v>79</v>
       </c>
       <c r="Q8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" t="s">
         <v>121</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>100</v>
-      </c>
-      <c r="S8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="5:19">
@@ -4768,7 +4767,7 @@
         <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
         <v>99</v>
@@ -4777,13 +4776,13 @@
         <v>79</v>
       </c>
       <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
         <v>121</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>100</v>
-      </c>
-      <c r="S9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="5:19">
@@ -4812,7 +4811,7 @@
         <v>134</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
         <v>99</v>
@@ -4821,13 +4820,13 @@
         <v>79</v>
       </c>
       <c r="Q10" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" t="s">
         <v>121</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="5:19">
@@ -4853,7 +4852,7 @@
         <v>133</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
         <v>99</v>
@@ -4862,13 +4861,13 @@
         <v>79</v>
       </c>
       <c r="Q11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" t="s">
         <v>121</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>100</v>
-      </c>
-      <c r="S11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="5:19">
@@ -4891,7 +4890,7 @@
         <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
         <v>99</v>
@@ -4900,13 +4899,13 @@
         <v>79</v>
       </c>
       <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
         <v>121</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="5:19">
@@ -4926,7 +4925,7 @@
         <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
         <v>99</v>
@@ -4935,13 +4934,13 @@
         <v>79</v>
       </c>
       <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
         <v>121</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>100</v>
-      </c>
-      <c r="S13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="5:19">
@@ -4970,7 +4969,7 @@
         <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
         <v>99</v>
@@ -4979,13 +4978,13 @@
         <v>79</v>
       </c>
       <c r="Q14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" t="s">
         <v>121</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>100</v>
-      </c>
-      <c r="S14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="5:19">
@@ -5014,7 +5013,7 @@
         <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
         <v>99</v>
@@ -5023,13 +5022,13 @@
         <v>79</v>
       </c>
       <c r="Q15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" t="s">
         <v>121</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>100</v>
-      </c>
-      <c r="S15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="5:19">
@@ -5049,7 +5048,7 @@
         <v>164</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
         <v>99</v>
@@ -5058,13 +5057,13 @@
         <v>79</v>
       </c>
       <c r="Q16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" t="s">
         <v>121</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>100</v>
-      </c>
-      <c r="S16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="5:19">
@@ -5084,10 +5083,10 @@
         <v>168</v>
       </c>
       <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" t="s">
         <v>119</v>
-      </c>
-      <c r="N17" t="s">
-        <v>120</v>
       </c>
       <c r="O17" t="s">
         <v>99</v>
@@ -5096,13 +5095,13 @@
         <v>79</v>
       </c>
       <c r="Q17" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" t="s">
         <v>121</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>100</v>
-      </c>
-      <c r="S17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="5:19">
@@ -5125,7 +5124,7 @@
         <v>174</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
         <v>99</v>
@@ -5134,13 +5133,13 @@
         <v>79</v>
       </c>
       <c r="Q18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" t="s">
         <v>121</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>100</v>
-      </c>
-      <c r="S18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="5:19">
@@ -5163,7 +5162,7 @@
         <v>179</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s">
         <v>99</v>
@@ -5172,13 +5171,13 @@
         <v>79</v>
       </c>
       <c r="Q19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" t="s">
         <v>121</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>100</v>
-      </c>
-      <c r="S19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="5:19">
@@ -5198,7 +5197,7 @@
         <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
         <v>99</v>
@@ -5207,13 +5206,13 @@
         <v>79</v>
       </c>
       <c r="Q20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" t="s">
         <v>121</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>100</v>
-      </c>
-      <c r="S20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="5:19">
@@ -5233,7 +5232,7 @@
         <v>187</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" t="s">
         <v>99</v>
@@ -5242,13 +5241,13 @@
         <v>79</v>
       </c>
       <c r="Q21" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" t="s">
         <v>121</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>100</v>
-      </c>
-      <c r="S21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="5:19">
@@ -5268,7 +5267,7 @@
         <v>192</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O22" t="s">
         <v>99</v>
@@ -5277,13 +5276,13 @@
         <v>79</v>
       </c>
       <c r="Q22" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" t="s">
         <v>121</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>100</v>
-      </c>
-      <c r="S22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="5:19">
@@ -5306,7 +5305,7 @@
         <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O23" t="s">
         <v>99</v>
@@ -5315,13 +5314,13 @@
         <v>79</v>
       </c>
       <c r="Q23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
         <v>121</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>100</v>
-      </c>
-      <c r="S23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -5377,7 +5376,7 @@
         <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
         <v>210</v>
@@ -5389,10 +5388,10 @@
         <v>79</v>
       </c>
       <c r="L26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" t="s">
         <v>100</v>
-      </c>
-      <c r="M26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="5:13">
@@ -5413,10 +5412,10 @@
         <v>79</v>
       </c>
       <c r="L27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" t="s">
         <v>100</v>
-      </c>
-      <c r="M27" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="5:13">
@@ -5437,10 +5436,10 @@
         <v>79</v>
       </c>
       <c r="L28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
         <v>100</v>
-      </c>
-      <c r="M28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="5:13">
@@ -5461,10 +5460,10 @@
         <v>79</v>
       </c>
       <c r="L29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" t="s">
         <v>100</v>
-      </c>
-      <c r="M29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="5:13">
@@ -5485,10 +5484,10 @@
         <v>79</v>
       </c>
       <c r="L30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" t="s">
         <v>100</v>
-      </c>
-      <c r="M30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="5:13">
@@ -5509,10 +5508,10 @@
         <v>79</v>
       </c>
       <c r="L31" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" t="s">
         <v>100</v>
-      </c>
-      <c r="M31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="5:13">
@@ -5533,10 +5532,10 @@
         <v>79</v>
       </c>
       <c r="L32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" t="s">
         <v>100</v>
-      </c>
-      <c r="M32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="5:13">
@@ -5557,10 +5556,10 @@
         <v>79</v>
       </c>
       <c r="L33" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" t="s">
         <v>100</v>
-      </c>
-      <c r="M33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="5:13">
@@ -5581,10 +5580,10 @@
         <v>79</v>
       </c>
       <c r="L34" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" t="s">
         <v>100</v>
-      </c>
-      <c r="M34" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5603,6 +5602,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col min="5" max="5" width="13.8819444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5796,11 +5798,14 @@
   <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5879,10 +5884,10 @@
         <v>79</v>
       </c>
       <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
         <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
       </c>
       <c r="J8" t="s">
         <v>244</v>
@@ -5891,10 +5896,10 @@
         <v>99</v>
       </c>
       <c r="L8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" t="s">
         <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="5:13">
@@ -5920,10 +5925,10 @@
         <v>99</v>
       </c>
       <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
         <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="5:13">
@@ -5949,10 +5954,10 @@
         <v>99</v>
       </c>
       <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
         <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -5978,10 +5983,10 @@
         <v>99</v>
       </c>
       <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="s">
         <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="5:13">
@@ -6007,10 +6012,10 @@
         <v>99</v>
       </c>
       <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s">
         <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="5:13">
@@ -6036,10 +6041,10 @@
         <v>99</v>
       </c>
       <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
         <v>100</v>
-      </c>
-      <c r="M13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="5:13">
@@ -6065,10 +6070,10 @@
         <v>99</v>
       </c>
       <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="s">
         <v>100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="5:13">
@@ -6094,10 +6099,10 @@
         <v>99</v>
       </c>
       <c r="L15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" t="s">
         <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="5:13">
@@ -6123,10 +6128,10 @@
         <v>99</v>
       </c>
       <c r="L16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s">
         <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -6152,10 +6157,10 @@
         <v>99</v>
       </c>
       <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
         <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -6181,10 +6186,10 @@
         <v>99</v>
       </c>
       <c r="L18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" t="s">
         <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -6210,10 +6215,10 @@
         <v>99</v>
       </c>
       <c r="L19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" t="s">
         <v>100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -6239,10 +6244,10 @@
         <v>99</v>
       </c>
       <c r="L20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" t="s">
         <v>100</v>
-      </c>
-      <c r="M20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -6268,10 +6273,10 @@
         <v>99</v>
       </c>
       <c r="L21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" t="s">
         <v>100</v>
-      </c>
-      <c r="M21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="5:13">
@@ -6297,10 +6302,10 @@
         <v>99</v>
       </c>
       <c r="L22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" t="s">
         <v>100</v>
-      </c>
-      <c r="M22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6366,21 +6371,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s">
         <v>79</v>
       </c>
       <c r="M25" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" t="s">
         <v>100</v>
-      </c>
-      <c r="N25" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="5:14">
       <c r="E26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$14</f>
@@ -6397,21 +6402,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s">
         <v>79</v>
       </c>
       <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
         <v>100</v>
-      </c>
-      <c r="N26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="5:14">
       <c r="E27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$11</f>
@@ -6428,21 +6433,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
         <v>79</v>
       </c>
       <c r="M27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
         <v>100</v>
-      </c>
-      <c r="N27" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F28" t="str">
         <f>发送配置!$E$15</f>
@@ -6459,21 +6464,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
         <v>79</v>
       </c>
       <c r="M28" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" t="s">
         <v>100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="str">
         <f>发送配置!$E$10</f>
@@ -6490,21 +6495,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
         <v>79</v>
       </c>
       <c r="M29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" t="s">
         <v>100</v>
-      </c>
-      <c r="N29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F30" t="str">
         <f>发送配置!$E$9</f>
@@ -6521,21 +6526,21 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K30" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
         <v>79</v>
       </c>
       <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
         <v>100</v>
-      </c>
-      <c r="N30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$19</f>
@@ -6548,21 +6553,21 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
         <v>79</v>
       </c>
       <c r="M31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" t="s">
         <v>100</v>
-      </c>
-      <c r="N31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="5:14">
       <c r="E32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F32" t="str">
         <f>发送配置!$E$21</f>
@@ -6575,21 +6580,21 @@
         <v>194</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
         <v>79</v>
       </c>
       <c r="M32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" t="s">
         <v>100</v>
-      </c>
-      <c r="N32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="5:14">
       <c r="E33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F33" t="str">
         <f>发送配置!$E$22</f>
@@ -6602,16 +6607,16 @@
         <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
         <v>79</v>
       </c>
       <c r="M33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" t="s">
         <v>100</v>
-      </c>
-      <c r="N33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6622,7 +6627,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>279</v>
@@ -6660,45 +6665,45 @@
     </row>
     <row r="36" spans="5:14">
       <c r="E36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F36" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" t="str">
         <f>短信服务配置!$E$8</f>
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
         <v>79</v>
       </c>
       <c r="M36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" t="s">
         <v>100</v>
-      </c>
-      <c r="N36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="5:14">
       <c r="E37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F37" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-18</v>
       </c>
       <c r="G37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H37" t="s">
         <v>176</v>
@@ -6708,28 +6713,28 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
         <v>79</v>
       </c>
       <c r="M37" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" t="s">
         <v>100</v>
-      </c>
-      <c r="N37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="5:14">
       <c r="E38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F38" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H38" t="s">
         <v>155</v>
@@ -6739,28 +6744,28 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
         <v>79</v>
       </c>
       <c r="M38" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" t="s">
         <v>100</v>
-      </c>
-      <c r="N38" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="39" spans="5:14">
       <c r="E39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H39" t="s">
         <v>150</v>
@@ -6770,28 +6775,28 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
         <v>79</v>
       </c>
       <c r="M39" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" t="s">
         <v>100</v>
-      </c>
-      <c r="N39" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="40" spans="5:14">
       <c r="E40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H40" t="s">
         <v>166</v>
@@ -6801,28 +6806,28 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
         <v>79</v>
       </c>
       <c r="M40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N40" t="s">
         <v>100</v>
-      </c>
-      <c r="N40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="5:14">
       <c r="E41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H41" t="s">
         <v>129</v>
@@ -6832,28 +6837,28 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
         <v>79</v>
       </c>
       <c r="M41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" t="s">
         <v>100</v>
-      </c>
-      <c r="N41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="5:14">
       <c r="E42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H42" t="s">
         <v>123</v>
@@ -6863,97 +6868,97 @@
         <v>hmsg_sms_server-8</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L42" t="s">
         <v>79</v>
       </c>
       <c r="M42" t="s">
+        <v>121</v>
+      </c>
+      <c r="N42" t="s">
         <v>100</v>
-      </c>
-      <c r="N42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="5:14">
       <c r="E43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H43" t="s">
         <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s">
         <v>79</v>
       </c>
       <c r="M43" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" t="s">
         <v>100</v>
-      </c>
-      <c r="N43" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="5:14">
       <c r="E44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H44" t="s">
         <v>181</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s">
         <v>79</v>
       </c>
       <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
         <v>100</v>
-      </c>
-      <c r="N44" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="5:14">
       <c r="E45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H45" t="s">
         <v>185</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s">
         <v>79</v>
       </c>
       <c r="M45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" t="s">
         <v>100</v>
-      </c>
-      <c r="N45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -6964,7 +6969,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>279</v>
@@ -7002,14 +7007,14 @@
     </row>
     <row r="48" spans="5:14">
       <c r="E48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H48" t="s">
         <v>146</v>
@@ -7018,22 +7023,22 @@
         <v>79</v>
       </c>
       <c r="M48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" t="s">
         <v>100</v>
-      </c>
-      <c r="N48" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="5:14">
       <c r="E49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H49" t="s">
         <v>189</v>
@@ -7042,10 +7047,10 @@
         <v>79</v>
       </c>
       <c r="M49" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" t="s">
         <v>100</v>
-      </c>
-      <c r="N49" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7098,10 +7103,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7116,19 +7121,19 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
@@ -7140,7 +7145,7 @@
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -7199,10 +7204,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7217,16 +7222,16 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M7" t="s">
         <v>65</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="24860" windowHeight="13280" tabRatio="597" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
   <si>
     <r>
       <rPr>
@@ -1954,6 +1954,39 @@
     <t>last_updated_by</t>
   </si>
   <si>
+    <t>hmsg_email_server-8</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
     <t>hmsg_email_server-9</t>
   </si>
   <si>
@@ -1966,21 +1999,6 @@
     <t>smtp.164.com</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>邮箱服务配置</t>
   </si>
   <si>
@@ -2026,24 +2044,27 @@
     <t>hmsg_sms_server-8</t>
   </si>
   <si>
+    <t>平台默认配置</t>
+  </si>
+  <si>
+    <t>BAIDU</t>
+  </si>
+  <si>
+    <t>http://sms.bj.baidubce.com</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server-9</t>
+  </si>
+  <si>
     <t>CHOERODON-SMS</t>
   </si>
   <si>
     <t>平台默认短信设置</t>
   </si>
   <si>
-    <t>BAIDU</t>
-  </si>
-  <si>
-    <t>http://sms.bj.baidubce.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>消息模板</t>
   </si>
   <si>
@@ -2102,9 +2123,6 @@
   </si>
   <si>
     <t>RT</t>
-  </si>
-  <si>
-    <t>now</t>
   </si>
   <si>
     <t>hmsg_message_template-9</t>
@@ -2614,9 +2632,6 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-26</t>
   </si>
   <si>
@@ -2730,12 +2745,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2812,7 +2827,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2822,6 +2837,59 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2841,14 +2909,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2863,24 +2931,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2893,72 +2975,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2983,6 +3004,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2995,6 +3023,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3038,13 +3072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,7 +3096,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3068,7 +3150,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,25 +3210,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,115 +3246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3325,6 +3359,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3349,26 +3427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3380,15 +3438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3407,168 +3456,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4036,7 +4070,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4278,18 +4312,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="25.4583333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.8611111111111" customWidth="1"/>
-    <col min="7" max="7" width="16.7847222222222" customWidth="1"/>
-    <col min="8" max="8" width="24.0694444444444" customWidth="1"/>
+    <col min="5" max="5" width="25.2291666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
+    <col min="17" max="17" width="13.5416666666667" customWidth="1"/>
+    <col min="19" max="19" width="15.7361111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4382,79 +4417,141 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="5:21">
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>73</v>
       </c>
       <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>75</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>76</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
       </c>
       <c r="M8" t="s">
         <v>77</v>
       </c>
       <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
         <v>78</v>
       </c>
-      <c r="O8">
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:21">
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="J10" t="s">
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4467,16 +4564,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="19.4375" customWidth="1"/>
-    <col min="8" max="8" width="16.5486111111111" customWidth="1"/>
+    <col min="5" max="5" width="24.0694444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4512,10 +4608,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -4530,19 +4626,19 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
@@ -4563,51 +4659,98 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="5:18">
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="5" t="s">
+    <row r="8" spans="5:19">
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="5:19">
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>100</v>
+      <c r="O9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" display="http://sms.bj.baidubce.com"/>
+    <hyperlink ref="J9" r:id="rId1" display="http://sms.bj.baidubce.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4619,7 +4762,7 @@
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4658,49 +4801,49 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
         <v>65</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -4711,616 +4854,616 @@
     </row>
     <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="5:19">
       <c r="E9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
         <v>127</v>
       </c>
-      <c r="N9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>120</v>
-      </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="5:19">
       <c r="E10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="5:19">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
         <v>138</v>
       </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="5:19">
       <c r="E12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="5:19">
       <c r="E13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="5:19">
       <c r="E14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R14" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="5:19">
       <c r="E15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="5:19">
       <c r="E16" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R16" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="5:19">
       <c r="E17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R17" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="5:19">
       <c r="E18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="5:19">
       <c r="E19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R19" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="5:19">
       <c r="E20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="5:19">
       <c r="E21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R21" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="5:19">
       <c r="E22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="5:19">
       <c r="E23" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q23" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -5331,31 +5474,31 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
         <v>69</v>
@@ -5366,224 +5509,224 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F26" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-8</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="5:13">
       <c r="E27" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F27" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="E28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F28" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-18</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="5:13">
       <c r="E29" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F29" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="5:13">
       <c r="E30" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F30" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="5:13">
       <c r="E31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F31" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="5:13">
       <c r="E32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F32" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="5:13">
       <c r="E33" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F33" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="5:13">
       <c r="E34" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F34" t="str">
         <f>消息模板!$E$21</f>
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5602,9 +5745,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
-  <cols>
-    <col min="5" max="5" width="13.8819444444444" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5639,28 +5779,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
@@ -5669,42 +5809,42 @@
         <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
         <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5757,34 +5897,34 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5798,14 +5938,11 @@
   <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5840,13 +5977,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>67</v>
@@ -5855,13 +5992,13 @@
         <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
@@ -5875,437 +6012,437 @@
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" t="s">
         <v>79</v>
       </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" t="s">
-        <v>247</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" t="s">
         <v>79</v>
       </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="5:13">
       <c r="E12" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" t="s">
         <v>79</v>
       </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" t="s">
-        <v>256</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" t="s">
         <v>79</v>
       </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" t="s">
-        <v>259</v>
-      </c>
-      <c r="K14" t="s">
-        <v>99</v>
-      </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" t="s">
         <v>79</v>
       </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" t="s">
-        <v>264</v>
-      </c>
-      <c r="K16" t="s">
-        <v>99</v>
-      </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" t="s">
-        <v>268</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" t="s">
         <v>79</v>
       </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" t="s">
-        <v>272</v>
-      </c>
-      <c r="K20" t="s">
-        <v>99</v>
-      </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J21" t="s">
-        <v>274</v>
-      </c>
-      <c r="K21" t="s">
-        <v>99</v>
-      </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" t="s">
-        <v>276</v>
-      </c>
-      <c r="J22" t="s">
-        <v>277</v>
-      </c>
-      <c r="K22" t="s">
-        <v>99</v>
-      </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6316,34 +6453,34 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J24" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K24" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M24" t="s">
         <v>69</v>
@@ -6354,269 +6491,269 @@
     </row>
     <row r="25" spans="5:14">
       <c r="E25" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F25" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-18</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I25" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K25" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="5:14">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F26" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I26" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K26" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="5:14">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F27" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I27" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="5:14">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F28" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I28" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="5:14">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F29" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G29" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I29" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K29" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="5:14">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F30" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I30" t="str">
-        <f>邮箱服务配置!$E$8</f>
+        <f>邮箱服务配置!$E$9</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="5:14">
       <c r="E31" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F31" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="5:14">
       <c r="E32" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F32" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="5:14">
       <c r="E33" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F33" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6627,34 +6764,34 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s">
         <v>69</v>
@@ -6665,300 +6802,300 @@
     </row>
     <row r="36" spans="5:14">
       <c r="E36" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F36" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I36" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M36" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="5:14">
       <c r="E37" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F37" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-18</v>
       </c>
       <c r="G37" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I37" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M37" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="5:14">
       <c r="E38" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F38" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G38" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I38" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="5:14">
       <c r="E39" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I39" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="5:14">
       <c r="E40" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G40" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I40" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M40" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="5:14">
       <c r="E41" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G41" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I41" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K41" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="5:14">
       <c r="E42" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G42" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I42" t="str">
-        <f>短信服务配置!$E$8</f>
-        <v>hmsg_sms_server-8</v>
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K42" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="5:14">
       <c r="E43" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G43" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="5:14">
       <c r="E44" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G44" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N44" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="5:14">
       <c r="E45" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G45" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K45" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M45" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -6969,34 +7106,34 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J47" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s">
         <v>69</v>
@@ -7007,50 +7144,50 @@
     </row>
     <row r="48" spans="5:14">
       <c r="E48" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H48" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M48" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:14">
       <c r="E49" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G49" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M49" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7103,10 +7240,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7121,19 +7258,19 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
@@ -7145,7 +7282,7 @@
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
@@ -7204,10 +7341,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7222,16 +7359,16 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" t="s">
         <v>324</v>
-      </c>
-      <c r="K7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L7" t="s">
-        <v>319</v>
       </c>
       <c r="M7" t="s">
         <v>65</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="13280" tabRatio="597" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2137,7 +2137,7 @@
     <t>账号创建成功</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】已为您创建账号[${loginName}]，初始密码为[${password}]。您可使用该账号密码登录云平台，地址：${indexUrl}，登录后请及时修改初始密码。&lt;/p&gt;</t>
   </si>
   <si>
     <t>smsTpl:d6514199-443b-4684-a874-35bbeb662400</t>
@@ -2152,7 +2152,7 @@
     <t>找回密码</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在找回登录密码，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>SYSTEM</t>
@@ -2173,7 +2173,7 @@
     <t>修改邮箱</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在修改邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在修改邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-12</t>
@@ -2188,7 +2188,7 @@
     <t>正在修改登录密码</t>
   </si>
   <si>
-    <t>&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Hzero】&lt;/p&gt;</t>
+    <t>&lt;p&gt;验证码${captcha}已发送至您的邮箱，请在五分钟内进行验证【Choerodon】&lt;/p&gt;</t>
   </si>
   <si>
     <t>smsTpl:2c665b32-37b2-4aad-91d3-c039b631be09</t>
@@ -2215,7 +2215,7 @@
     <t>修改手机号</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在修改新手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>smsTpl:41dab45c-bee8-44c3-87cd-900821ca748a</t>
@@ -2233,7 +2233,7 @@
     <t>账号注册</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在注册账号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>UR</t>
@@ -2251,7 +2251,7 @@
     <t>验证邮箱</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-17</t>
@@ -2263,7 +2263,7 @@
     <t>验证手机号</t>
   </si>
   <si>
-    <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
+    <t>&lt;p&gt;【Choerodon】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-18</t>
@@ -2278,7 +2278,7 @@
     <t>短信登录</t>
   </si>
   <si>
-    <t>&lt;p&gt;您正在【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+    <t>&lt;p&gt;您正在【Choerodon】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
   </si>
   <si>
     <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
@@ -2321,10 +2321,10 @@
   </si>
   <si>
     <t>&lt;p&gt;你好!&lt;/p&gt;
-&lt;p&gt;感谢您注册HZERO平台。&amp;nbsp;&lt;br /&gt;
+&lt;p&gt;感谢您注册Choerodon平台。&amp;nbsp;&lt;br /&gt;
 您的登录账户为：&lt;span style="color:#2ecc71"&gt;${account}&lt;/span&gt;。请点击以下链接激活帐号：&lt;/p&gt;
 &lt;p&gt;&lt;a href="http://hzeronb.saas.hand-china.com/iam/hzero/v1/users/register/url-activate?registerType=${registerType}&amp;amp;ticket=${ticket}" target="_blank"&gt;http://hzeronb.saas.hand-china.com/iam/hzero/v1/users/register/url-activate?registerType=${registerType}&amp;amp;ticket=${ticket}&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;如果以上链接无法点击，请将上面的地址复制到您的浏览器(如IE)的地址栏进入HZERO平台。 &lt;span style="color:#2ecc71"&gt;(该链接在24小时内有效，24小时后点击无效)&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;如果以上链接无法点击，请将上面的地址复制到您的浏览器(如IE)的地址栏进入Choerodon平台。 &lt;span style="color:#2ecc71"&gt;(该链接在24小时内有效，24小时后点击无效)&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span style="color:#f1c40f"&gt;(如果该请求不是由您发出，可能您的账号存在安全风险)&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -2356,7 +2356,7 @@
     <t>邮箱登录</t>
   </si>
   <si>
-    <t>&lt;p&gt;您正在登录【HZERO】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
+    <t>&lt;p&gt;您正在登录【Choerodon】，登录验证码：${captcha}，该验证码5分钟内有效，请勿泄漏于他人！&lt;/p&gt;</t>
   </si>
   <si>
     <t>sms-tmpl-TGdUOR66272</t>
@@ -2745,12 +2745,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2827,13 +2827,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2842,6 +2835,76 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2856,25 +2919,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2893,23 +2940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2924,60 +2956,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,13 +2998,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3023,12 +3010,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3078,7 +3059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,13 +3077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3114,7 +3095,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,67 +3191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,30 +3215,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3240,19 +3227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,26 +3340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3398,7 +3359,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3414,15 +3375,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3456,164 +3408,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4076,10 +4060,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -4093,79 +4077,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4173,56 +4157,56 @@
       </c>
     </row>
     <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4232,64 +4216,64 @@
       </c>
     </row>
     <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4474,10 +4458,10 @@
       <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
@@ -4703,48 +4687,47 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="5:19">
+    <row r="9" s="6" customFormat="1" spans="5:19">
       <c r="E9" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="O9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="R9" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>-1</v>
       </c>
     </row>
@@ -4762,11 +4745,17 @@
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="6" max="6" width="31.5972222222222" customWidth="1"/>
+    <col min="7" max="7" width="30.2013888888889" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="96.0625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5358,7 +5347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="5:19">
+    <row r="21" ht="219" spans="5:19">
       <c r="E21" t="s">
         <v>190</v>
       </c>
@@ -5371,7 +5360,7 @@
       <c r="H21" t="s">
         <v>192</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="5" t="s">
         <v>193</v>
       </c>
       <c r="N21" t="s">
@@ -5393,7 +5382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="5:19">
+    <row r="22" ht="68" spans="5:19">
       <c r="E22" t="s">
         <v>194</v>
       </c>
@@ -5406,7 +5395,7 @@
       <c r="H22" t="s">
         <v>197</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="5" t="s">
         <v>198</v>
       </c>
       <c r="N22" t="s">
@@ -5938,11 +5927,19 @@
   <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="16.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="25.8125" customWidth="1"/>
+    <col min="8" max="8" width="32.6388888888889" customWidth="1"/>
+    <col min="9" max="9" width="35.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="38.0833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -6689,6 +6686,10 @@
       <c r="H31" t="s">
         <v>187</v>
       </c>
+      <c r="I31" t="str">
+        <f>邮箱服务配置!$E$9</f>
+        <v>hmsg_email_server-9</v>
+      </c>
       <c r="K31" t="s">
         <v>72</v>
       </c>
@@ -6716,6 +6717,10 @@
       <c r="H32" t="s">
         <v>200</v>
       </c>
+      <c r="I32" t="str">
+        <f>邮箱服务配置!$E$9</f>
+        <v>hmsg_email_server-9</v>
+      </c>
       <c r="K32" t="s">
         <v>72</v>
       </c>
@@ -6743,6 +6748,10 @@
       <c r="H33" t="s">
         <v>191</v>
       </c>
+      <c r="I33" t="str">
+        <f>邮箱服务配置!$E$9</f>
+        <v>hmsg_email_server-9</v>
+      </c>
       <c r="K33" t="s">
         <v>72</v>
       </c>
@@ -7031,6 +7040,10 @@
       <c r="H43" t="s">
         <v>176</v>
       </c>
+      <c r="I43" t="str">
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
+      </c>
       <c r="K43" t="s">
         <v>72</v>
       </c>
@@ -7058,6 +7071,10 @@
       <c r="H44" t="s">
         <v>187</v>
       </c>
+      <c r="I44" t="str">
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
+      </c>
       <c r="K44" t="s">
         <v>72</v>
       </c>
@@ -7084,6 +7101,10 @@
       </c>
       <c r="H45" t="s">
         <v>191</v>
+      </c>
+      <c r="I45" t="str">
+        <f>短信服务配置!$E$9</f>
+        <v>hmsg_sms_server-9</v>
       </c>
       <c r="K45" t="s">
         <v>72</v>
@@ -7202,7 +7223,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2745,9 +2745,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -2827,6 +2827,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2834,16 +2857,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2855,22 +2879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2879,8 +2887,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2894,11 +2910,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2919,29 +2934,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2955,23 +2970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,6 +3053,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3060,30 +3078,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3101,7 +3095,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3113,19 +3137,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,49 +3215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3191,49 +3233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,7 +3359,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3375,21 +3399,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3428,162 +3437,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4299,12 +4299,13 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="25.2291666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.4861111111111" customWidth="1"/>
     <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="13.5416666666667" customWidth="1"/>
@@ -4551,12 +4552,13 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="24.0694444444444" customWidth="1"/>
+    <col min="6" max="6" width="17.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4745,12 +4747,13 @@
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
+    <col min="5" max="5" width="17.8194444444444" customWidth="1"/>
     <col min="6" max="6" width="31.5972222222222" customWidth="1"/>
     <col min="7" max="7" width="30.2013888888889" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
@@ -5927,8 +5930,8 @@
   <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5939,6 +5942,7 @@
     <col min="8" max="8" width="32.6388888888889" customWidth="1"/>
     <col min="9" max="9" width="35.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="38.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6505,7 +6509,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
         <v>80</v>
@@ -6536,7 +6540,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s">
         <v>80</v>
@@ -6567,7 +6571,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -6598,7 +6602,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s">
         <v>80</v>
@@ -6629,7 +6633,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s">
         <v>80</v>
@@ -6660,7 +6664,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s">
         <v>80</v>
@@ -6691,7 +6695,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s">
         <v>80</v>
@@ -6722,7 +6726,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s">
         <v>80</v>
@@ -6753,7 +6757,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s">
         <v>80</v>
@@ -6828,7 +6832,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s">
         <v>80</v>
@@ -6859,7 +6863,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s">
         <v>80</v>
@@ -6890,7 +6894,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s">
         <v>80</v>
@@ -6921,7 +6925,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s">
         <v>80</v>
@@ -6952,7 +6956,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s">
         <v>80</v>
@@ -6983,7 +6987,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s">
         <v>80</v>
@@ -7014,7 +7018,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s">
         <v>80</v>
@@ -7045,7 +7049,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s">
         <v>80</v>
@@ -7076,7 +7080,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
@@ -7107,7 +7111,7 @@
         <v>hmsg_sms_server-9</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s">
         <v>80</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11820" tabRatio="597" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="331">
   <si>
     <r>
       <rPr>
@@ -2745,10 +2745,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2803,12 +2803,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2826,33 +2820,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2863,8 +2841,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2879,9 +2864,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2895,31 +2909,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2934,21 +2925,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2962,16 +2939,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,7 +3053,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3065,7 +3113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,37 +3149,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3119,13 +3215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,103 +3227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3250,28 +3250,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3296,12 +3280,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3310,13 +3303,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3331,6 +3322,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3340,50 +3340,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3403,17 +3364,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3437,155 +3407,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3596,8 +3596,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3609,113 +3609,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="49"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4050,7 +4050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -4058,7 +4058,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
@@ -4083,130 +4083,130 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="26"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="21" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="22" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4215,39 +4215,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="25" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="25" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="25" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -4255,25 +4255,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="28" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4294,15 +4294,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="25.2291666666667" customWidth="1"/>
     <col min="6" max="6" width="20.4861111111111" customWidth="1"/>
@@ -4547,7 +4547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S9"/>
   <sheetViews>
@@ -4555,7 +4555,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="24.0694444444444" customWidth="1"/>
     <col min="6" max="6" width="17.4722222222222" customWidth="1"/>
@@ -4743,15 +4743,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.8194444444444" customWidth="1"/>
     <col min="6" max="6" width="31.5972222222222" customWidth="1"/>
@@ -5350,7 +5350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" ht="219" spans="5:19">
+    <row r="21" ht="226.2" spans="5:19">
       <c r="E21" t="s">
         <v>190</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" ht="68" spans="5:19">
+    <row r="22" ht="69.6" spans="5:19">
       <c r="E22" t="s">
         <v>194</v>
       </c>
@@ -5728,7 +5728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -5736,7 +5736,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5846,7 +5846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -5854,7 +5854,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5926,15 +5926,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="3" max="3" width="16.0833333333333" customWidth="1"/>
     <col min="5" max="5" width="28.125" customWidth="1"/>
@@ -6660,11 +6660,11 @@
         <v>129</v>
       </c>
       <c r="I30" t="str">
-        <f>邮箱服务配置!$E$9</f>
-        <v>hmsg_email_server-9</v>
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-8</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
         <v>80</v>
@@ -7222,7 +7222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -7230,7 +7230,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -7323,7 +7323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -7331,7 +7331,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
